--- a/3.b.TF-IDF/splitTF-IDFCluster/cluster_9.xlsx
+++ b/3.b.TF-IDF/splitTF-IDFCluster/cluster_9.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C293"/>
+  <dimension ref="A1:F293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,657 +437,1019 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>severity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recurrent</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>result</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>processed_result</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>category</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>10010000008352</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" t="inlineStr">
         <is>
           <t>该APP在群聊中展示敏感信息（如银行卡号和金额）时，没有提供适当的私密信息泄露警告。这种设计缺陷可能会导致用户无意中泄露个人财务信息，增加安全风险。</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>APP 群聊 展示 敏感 信息 银行卡 号 金额 没有 提供 适当 私密 信息 泄露 警告 设计 缺陷 无意 泄露 个人 财务 信息 增加 安全 风险</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>10010000008498</v>
+      </c>
+      <c r="B3" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>创建群时，被邀请者无法拒绝会被强制拉入群中</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>创建 群时 被邀请者 无法 拒绝 强制 拉入 群中</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10010000007873</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>安全</t>
         </is>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>在搜索用户并邀请其加入群聊的过程中，系统存在漏洞。即使用户没有明确同意，他们也可能被随机邀请进群，这可能引发用户的困扰和隐私问题。</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>搜索 邀请 加入 群聊 过程 系统 漏洞 没有 明确 同意 随机 邀请 进群 引发 困扰 隐私</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>10010000007414</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>不正常退出</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>软件界面显示错误，登录进度条未完成。</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>软件 界面显示 错误 登录 进度条 未 完成</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>10010000007988</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>问题描述：在软件中查找并加入群聊的功能出现问题。
 图片描述：用户界面显示了查找群和加入群的步骤，但具体细节不清晰。</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>软件 查找 加入 群聊 出现 
  图片 用户界面 查找 群 加入 群 具体 细节 清晰</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>10010000007621</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>该图像显示了一个手机屏幕，上面有一个通知，标题为“KiKAndroid”，并有一个开启服务的按钮。但通知内容部分的文字出现了错误或不完整的显示，导致无法理解其意图。</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>手机 屏幕 上面 通知 标题 KiKAndroid 开启 服务 按钮 通知 内容 部分 文字 出现 错误 完整 无法 理解 意图</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>10010000007964</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>该问题描述显示了一个新建群的步骤界面，但具体步骤未在文字中给出。图片展示了一个手机应用界面，其中包含了创建新群组的选项和设置。由于没有具体的步骤信息，无法准确描述该界面的功能或存在的bug。</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>新建 群 界面 具体步骤 未 文字 给出 图片 展示 手机 应用 界面 包含 创建 新 群组 选项 设置 没有 具体 信息 无法 准确 界面</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>10010000007760</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>图像中展示的是一个第三方登录界面，但具体细节不清晰，无法确定是否存在bug。</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>展示 第三方 登录 界面 具体 细节 清晰 无法 确定 是否</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10010000008625</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>5</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>在修改用户头像的过程中，该软件在安卓设备上请求摄像头和相册权限时未经过用户的明确允许，而是直接获取这些权限并执行拍照操作。这种行为可能对用户的手机安全构成潜在威胁。</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>修改 头像 过程 安卓 设备 请求 摄像头 相册 权限 时未 明确 允许 获取 权限 执行 拍照 行为 手机 安全 构成 潜在 威胁</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10010000009355</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>改名时敏感词会有提示，但是在群聊中敏感词没有安全提示，当发一些敏感词的时候，并没有“注意安全”之类的提示</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>改名 敏感 词会 提示 群聊 敏感 词 没有 安全 提示 当发 敏感 词 没有 注意安全 提示</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10010000009259</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>在添加群聊或进行用户聊天时，特殊字符如分号没有被禁止，这可能导致SQL语句注入攻击，增加了系统被黑客攻击的风险。</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>添加 群聊 进行 聊天 特殊字符 如分 号 没有 禁止 SQL 语句 注入 攻击 增加 系统 黑客攻击 风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10010000008453</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>5</v>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>在用户登录后尝试退出，直接点击返回按钮时，系统未能正确清除已登录用户的相关数据，导致当前登录用户仍能看到之前登录用户的敏感信息。</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>登录 退出 点击 返回 按钮 系统 未能 正确 清除 登录 相关 数据 当前 登录 仍能 看到 之前 登录 敏感 信息</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>10010000008035</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>5</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>安装应用时，发现应用有 直接拨打电话而产生费用的风险</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>安装 应用 发现 应用   拨打 电话 产生 费用 风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>10010000008038</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>4</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>应用有更改系统设置的风险</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>应用 更改 系统 设置 风险</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>10010000008053</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>应用有关闭其他应用的权限。安全问题</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>应用 关闭 应用 权限 安全</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>10010000008080</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>应用有修改，删除sd卡内容的权限，应用也有录音，拍照，视频，更改音频权限</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>应用 修改 删除 sd 卡 内容 权限 应用 录音 拍照 视频 更改 音频 权限</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10010000008442</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>5</v>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>聊天中设计财产问题时没有安全提醒</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>聊天 设计 财产 没有 安全 提醒</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>10010000008503</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>应用占用系统内存过多，手机发热  导致手机无限重启</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>应用 占用 系统 内存 过多 手机 发热     手机 无限 重启</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>10010000008818</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>安全</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>5</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>该软件缺陷严重，涉及安全和性能问题。在用户尝试加入群组时，系统虽然显示加入成功的提示，但实际操作中并未完成，导致用户无法开始与群组成员进行交流。这种状态可能会造成信息传递的中断，影响用户的使用体验。此外，由于该缺陷存在潜在的安全隐患，即使是小概率事件的发生也可能对用户产生不利影响。</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>软件缺陷 严重 涉及 安全 性能 加入 群组 系统 加入 成功 提示 实际操作 并未 完成 无法 群 组成员 进行 交流 状态 造成 信息 传递 中断 缺陷 潜在 安全隐患 概率 事件 发生 产生 不利</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>10010000007481</v>
+      </c>
+      <c r="B21" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>该图像显示了一个手机屏幕，上面有一个通知，标题为“KiKAndroid”，并有一个开启服务的按钮。但通知内容部分的文字出现了错误或不完整的显示，导致无法理解其意图。</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>手机 屏幕 上面 通知 标题 KiKAndroid 开启 服务 按钮 通知 内容 部分 文字 出现 错误 完整 无法 理解 意图</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>该问题描述显示了一个新建群的步骤界面，但具体步骤未在文字中给出。图片展示了一个手机应用界面，其中包含了创建新群组的选项和设置。由于没有具体的步骤信息，无法准确描述该界面的功能或存在的bug。</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>新建 群 界面 具体步骤 未 文字 给出 图片 展示 手机 应用 界面 包含 创建 新 群组 选项 设置 没有 具体 信息 无法 准确 界面</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>图像中展示的是一个第三方登录界面，但具体细节不清晰，无法确定是否存在bug。</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>展示 第三方 登录 界面 具体 细节 清晰 无法 确定 是否</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>在修改用户头像的过程中，该软件在安卓设备上请求摄像头和相册权限时未经过用户的明确允许，而是直接获取这些权限并执行拍照操作。这种行为可能对用户的手机安全构成潜在威胁。</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>修改 头像 过程 安卓 设备 请求 摄像头 相册 权限 时未 明确 允许 获取 权限 执行 拍照 行为 手机 安全 构成 潜在 威胁</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>改名时敏感词会有提示，但是在群聊中敏感词没有安全提示，当发一些敏感词的时候，并没有“注意安全”之类的提示</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>改名 敏感 词会 提示 群聊 敏感 词 没有 安全 提示 当发 敏感 词 没有 注意安全 提示</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>在添加群聊或进行用户聊天时，特殊字符如分号没有被禁止，这可能导致SQL语句注入攻击，增加了系统被黑客攻击的风险。</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>添加 群聊 进行 聊天 特殊字符 如分 号 没有 禁止 SQL 语句 注入 攻击 增加 系统 黑客攻击 风险</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>在用户登录后尝试退出，直接点击返回按钮时，系统未能正确清除已登录用户的相关数据，导致当前登录用户仍能看到之前登录用户的敏感信息。</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>登录 退出 点击 返回 按钮 系统 未能 正确 清除 登录 相关 数据 当前 登录 仍能 看到 之前 登录 敏感 信息</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>安装应用时，发现应用有 直接拨打电话而产生费用的风险</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>安装 应用 发现 应用   拨打 电话 产生 费用 风险</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>应用有更改系统设置的风险</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>应用 更改 系统 设置 风险</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>应用有关闭其他应用的权限。安全问题</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>应用 关闭 应用 权限 安全</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>应用有修改，删除sd卡内容的权限，应用也有录音，拍照，视频，更改音频权限</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>应用 修改 删除 sd 卡 内容 权限 应用 录音 拍照 视频 更改 音频 权限</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>聊天中设计财产问题时没有安全提醒</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>聊天 设计 财产 没有 安全 提醒</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>应用占用系统内存过多，手机发热  导致手机无限重启</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>应用 占用 系统 内存 过多 手机 发热     手机 无限 重启</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>该软件缺陷严重，涉及安全和性能问题。在用户尝试加入群组时，系统虽然显示加入成功的提示，但实际操作中并未完成，导致用户无法开始与群组成员进行交流。这种状态可能会造成信息传递的中断，影响用户的使用体验。此外，由于该缺陷存在潜在的安全隐患，即使是小概率事件的发生也可能对用户产生不利影响。</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>软件缺陷 严重 涉及 安全 性能 加入 群组 系统 加入 成功 提示 实际操作 并未 完成 无法 群 组成员 进行 交流 状态 造成 信息 传递 中断 缺陷 潜在 安全隐患 概率 事件 发生 产生 不利</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>安全</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>点击编辑按钮之后，输入一个字，点击发表的时候，app自动退出。</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>点击 编辑 按钮 之后 输入 字 点击 发表 app 自动 退出</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>10010000007482</v>
+      </c>
+      <c r="B22" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="C22" t="n">
+        <v>4</v>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>编辑不正常退出之后，再次进入app，无法进入。</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>编辑 正常 退出 之后 再次 进入 app 无法 进入</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>10010000008968</v>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>程序正常运行时有闪退现象。</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>程序 正常 运行 时有 闪退 现象</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>10010000009819</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>1.注册页面应该添加多一项微博直接登录。
 2.出现闪退现象。提示JayMe停止运行，并退出手机主页。点击该软件再次登录还是出现类似情况。
 定位分析：软件运行产生大量缓存数据，造成手机内存空间不足。或者本手机之前已经安装过此款软件，历史数据没有清除；对网络环境分析，可能是测试过程中刚刚网络延迟问题，手机从服务器获取请求的信息数据时，服务器将已经响应过的信息发送来手机端，由于网络延迟会出现响应数据不能正常接收，因此闪退。</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>. 注册 页面 应该 添加 一项 微博 登录 
  . 出现 闪退 现象 提示 JayMe 停止 运行 退出 手机 主页 点击 再次 登录 出现 类似 情况 
  定位 分析 软件 运行 产生 大量 缓存数据 造成 手机 内存空间 不足 手机 之前 安装 此款 软件 历史数据 没有 清除 网络 环境 分析 过程 刚刚 网络 延迟 手机 服务器 获取 请求 信息 数据 服务器 响应 信息 发送 手机 端 网络 延迟 出现 响应 数据 不能 正常 接收 闪退</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>10010000008704</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="C25" t="n">
+        <v>5</v>
+      </c>
+      <c r="D25" t="n">
+        <v>3</v>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>测试中常常会出现闪退的现象，有时甚至连续闪退，急需解决，非常影响使用</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>常常 出现 闪退 现象 连续 闪退 急需解决 非常</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>10010000010006</v>
+      </c>
+      <c r="B26" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>进入群聊界面后退出，看到消息提醒，再进入，看完再退出，反复几次，出现了闪退情况。</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>进入 群聊 界面 退出 看到 消息 提醒 进入 完 退出 反复 几次 出现 闪退 情况</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>10010000008521</v>
+      </c>
+      <c r="B27" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>闪退，在界面好好的，突然就闪退，然后就只能重新登录了，期间出现过两三次</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>闪退 界面 好好 突然 闪退 只能 重新 登录 期间 出现 两三次</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>10010000009148</v>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>使用软件的过程中，会不规律的出现闪退现象。</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>软件 过程 规律 出现 闪退 现象</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10010000009348</v>
+      </c>
+      <c r="B29" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>在软件测试过程中，当用户尝试从当前界面退出时，应用程序意外终止并导致闪退。特别是在使用安卓虚拟机进行测试时，此问题尤为明显。当用户再次尝试通过“kikbug”重新进入已闪退的应用程序时，发现应用无法正常启动或加载。</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>软件测试 过程 当前 界面 退出 应用程序 意外 终止 闪退 特别 安卓 虚拟机 进行 尤为 明显 再次 kikbug 重新 进入 已闪退 应用程序 发现 应用 无法 正常 启动 加载</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>10010000009406</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="C30" t="n">
+        <v>4</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>这是一个软件的闪退问题。在用户使用过程中，应用程序突然关闭并重新启动，导致用户必须重新开始他们的操作。这可能是由于代码错误、内存溢出或其他系统问题导致的。</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>软件 闪退 过程 应用程序 突然 关闭 重新启动 必须 重新 代码 错误 内存 溢出 系统</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>10010000008003</v>
+      </c>
+      <c r="B31" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" t="inlineStr">
         <is>
           <t>点击商店后再点个人会闪退</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>点击 商店 再点 个人 闪退</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>10010000009114</v>
+      </c>
+      <c r="B32" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>5</v>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>浏览相册照片时，进入一个相册之后使一个相册的预览图，然后点击进入一张照片查看大图，查看大图后按返回键应该退到预览图界面，但是每次在大图模式下按返回都是直接返回到相册列表。应该先从图一返回到图二，但是按下返回键会直接从图一返回到图三。</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>浏览 相册 照片 进入 相册 之后 相册 预览 图 点击 进入 一张 照片 查看 大图 查看 大图 返回 键 应该 退 预览 图 界面 每次 大图 模式 返回 返回 相册 列表 应该 先 图 返回 图二 按下 返回 键会 从图 返回 图 三</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>10010000009335</v>
+      </c>
+      <c r="B33" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>该软件中的视频播放功能似乎存在一个bug。用户在网络连接良好的情况下点击视频，但视频无法正常播放，并且系统错误地显示为“网络异常”。这可能意味着视频播放器与网络连接的检测机制之间存在某种不同步或错误，导致播放器误判了当前的网络状态。</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>视频 播放 网络连接 良好 情况 点击 视频 视频 无法 正常 播放 系统 错误 网络 异常 意味着 视频 播放器 网络连接 检测 机制 之间 某种 同步 错误 播放器 误判 当前 网络 状态</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>10010000009509</v>
+      </c>
+      <c r="B34" t="inlineStr">
         <is>
           <t>不正常退出</t>
         </is>
       </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E34" t="inlineStr">
         <is>
           <t>当查找群时，不定时的出现闪退现象！！！！！</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>查找 群时 定时 出现 闪退 现象</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>不正常退出</t>
-        </is>
-      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>10010000007510</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>功能不完整</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>4</v>
+      </c>
+      <c r="D35" t="n">
+        <v>5</v>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>问题描述：在杰伦商城的图标栏中，最上方的切换图标显示为“杰伦的睡前故事”，但当用户点击进入该选项时，页面内容为空白，没有预期的内容或信息展示。</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>杰伦 商城 图标 栏中 上方 切换 图标 杰伦 睡 前 故事 点击 进入 选项 页面 内容 空白 没有 预期 内容 信息 展示</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>10010000007511</v>
+      </c>
+      <c r="B36" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" t="inlineStr">
         <is>
           <t>在不同的图标划栏中同时出现两张一模一样的杰伦睡前的故事</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>不同 图标 划栏 出现 两张 一模一样 杰伦 睡 前 故事</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>10010000007632</v>
+      </c>
+      <c r="B37" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>该软件在用户尝试刷新消息或回复/赞详情时，当页面内容不足一屏幕显示时，会显示“被你看光啦”的提示信息。然而，如果刷新后没有新的回复或赞出现，该提示信息不会更新，而是保持在原有的“被你看光啦”状态。这可能导致用户误以为没有新的信息，而实际上可能是由于内容尚未加载出来。</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>刷新 消息 回复 / 赞 详情 页面 内容 不足 屏幕显示 看光 提示信息 刷新 没有 新 回复 或赞 出现 提示信息 不会 更新 保持 原有 看光 状态 误以为 没有 新 信息 实际上 内容 尚未 加载</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>10010000007702</v>
+      </c>
+      <c r="B38" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="C38" t="n">
+        <v>4</v>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
         <is>
           <t>该软件界面在进入商城并尝试购买商品时出现了功能异常。用户点击价格为299的T恤进入商品详情页面，并准备进行购买操作，但在进入下订单界面时，由于无法添加收货地址的功能故障，导致下订单界面右下角的确认按钮未激活，无法执行下单操作。</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>界面 进入 商城 购买 商品 出现 异常 点击 价格 299 T恤 进入 商品 详情 页面 准备 进行 购买 进入 订单 界面 无法 添加 收货 地址 故障 订单 界面 右下角 确认 按钮 未激活 无法 执行 下单</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>10010000007701</v>
+      </c>
+      <c r="B39" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
         <is>
           <t>该软件存在以下问题：
 1. 在商城界面，商品信息显示不完整，只有部分商品如食品，服侍等可见。
@@ -1095,7 +1457,7 @@
 3. 当用户点击添加收货地址的完成按钮后，系统提示“网络出现问题”，导致无法成功添加收货地址。</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>以下 
  .   商城 界面 商品信息 完整 部分 商品 食品 服侍 
@@ -1103,31 +1465,49 @@
  .   点击 添加 收货 地址 完成 按钮 系统 提示 网络 出现 无法 成功 添加 收货 地址</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>10010000007699</v>
+      </c>
+      <c r="B40" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+      <c r="C40" t="n">
+        <v>3</v>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
         <is>
           <t>这个软件界面存在一个导航错误，导致用户在尝试访问商品详情页面时无法成功。具体表现为，当点击下订单界面的商品信息部分时，系统没有正确响应并导向商品详情页面，而是保持在同一界面，这违反了用户期望和正常的使用流程。</t>
         </is>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>软件 界面 导航 错误 访问 商品 详情 页面 无法 成功 具体表现 点击 订单 界面 商品信息 部分 系统 没有 正确 响应 导向 商品 详情 页面 保持 同一 界面 违反 期望 正常</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>10010000007700</v>
+      </c>
+      <c r="B41" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+      <c r="C41" t="n">
+        <v>3</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
         <is>
           <t>根据提供的问题描述和截图，该软件存在以下bug：
 1. 商城的商品分类显示不完整，无法看到全部商品信息。
@@ -1135,7 +1515,7 @@
 3. 下订单界面的付款方式单一，只有支付宝选项，不支持其他付款方式。</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>提供 截图 以下 
  .   商城 商品 分类 完整 无法 看到 商品信息 
@@ -1143,594 +1523,909 @@
  .   订单 界面 付款 方式 单一 支付宝 选项 支持 付款 方式</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>10010000007697</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3</v>
+      </c>
+      <c r="D42" t="n">
+        <v>5</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>登录JayMe，点击首页下方导航栏的商城图标进入商城，该商城商城的食品，服侍，电子产品，书等商品信息，见截图1、2、3，但是这些信息并没有明确的分类显示，并且也未提供通过分类进行商品查询的功能</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>登录 JayMe 点击 首页 下方 导航 栏 商城 图标 进入 商城 商城 商城 食品 服侍 电子产品 书 商品信息 见 截图 信息 没有 明确 分类 未 提供 分类 进行 商品 查询</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>10010000008151</v>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>登录JayMe，点击首页下方导航栏的商城图标进入商城，该商城商城的食品，服侍，电子产品，书等商品信息，见截图1、2、3，但是这些信息并没有明确的分类显示，并且也未提供通过分类进行商品查询的功能</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>登录 JayMe 点击 首页 下方 导航 栏 商城 图标 进入 商城 商城 商城 食品 服侍 电子产品 书 商品信息 见 截图 信息 没有 明确 分类 未 提供 分类 进行 商品 查询</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5</v>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>在搜索群聊时，用户点击“热门群聊推荐”功能后，该功能没有响应。</t>
         </is>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>搜索 群聊 点击 热门 群聊 推荐 没有响应</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>10010000009041</v>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5</v>
+      </c>
+      <c r="E44" t="inlineStr">
         <is>
           <t>该bug描述了一个软件界面的问题，在查找历史信息功能中，当用户尝试输入一个在历史记录中不存在的日期时，软件没有给出正确的反馈提示信息不存在。相反，它显示了一个与实际输入日期不符的存在信息，这可能会误导用户并导致混淆。</t>
         </is>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>软件 界面 查找 历史 信息 输入 历史记录 日期 软件 没有 给出 正确 反馈 提示信息 相反 输入 日期 不符 信息 误导 混淆</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>10010000009497</v>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>5</v>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>在软件界面中，用户点击“热门群推荐”按钮时，系统没有响应。</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>软件 界面 点击 热门 群 推荐 按钮 系统 没有响应</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>10010000009301</v>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>5</v>
+      </c>
+      <c r="E46" t="inlineStr">
         <is>
           <t>该软件存在一个用户界面(UI)的问题。当用户尝试通过搜索加入群聊时，如果遇到两个或更多名称相同或相似的群聊，系统无法区分它们，导致用户无法找到他们想要加入的特定群聊。这种设计缺陷可能会导致用户的混淆和不便，从而降低了用户体验的质量。</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>用户界面 ( UI ) 搜索 加入 群聊 遇到 两个 更 名称 相同 相似 群聊 系统 无法 区分 无法 找到 想要 加入 特定 群聊 设计 缺陷 混淆 不便 降低 质量</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>10010000008041</v>
+      </c>
+      <c r="B47" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
         <is>
           <t>在朋友界面的上部，第一个图标（类似眼睛的图标）无法正常响应用户的交互操作。当用户试图点击或与其进行互动时，该图标没有产生预期的反应，如打开新窗口、加载内容或其他视觉反馈，表明它目前是无效或不可用的。</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>朋友 界面 上部 第一个 图标 类似 眼睛 图标 无法 正常 响应 交互 试图 点击 进行 互动 图标 没有 产生 预期 反应 打开 新窗口 加载 内容 视觉 反馈 表明 目前 无效 不可</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>10010000009139</v>
+      </c>
+      <c r="B48" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="C48" t="n">
+        <v>5</v>
+      </c>
+      <c r="D48" t="n">
+        <v>4</v>
+      </c>
+      <c r="E48" t="inlineStr">
         <is>
           <t>在创建群时，用户选择了不允许任何人加入的选项。但在群成功创建后，发现群设置中显示可以允许其他人加入，这与用户的初始选择不符。</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>创建 群时 选择 允许 任何人 加入 选项 群 成功 创建 发现 群 设置 允许 其他人 加入 初始 选择 不符</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>10010000008476</v>
+      </c>
+      <c r="B49" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
+      <c r="C49" t="n">
+        <v>3</v>
+      </c>
+      <c r="D49" t="n">
+        <v>5</v>
+      </c>
+      <c r="E49" t="inlineStr">
         <is>
           <t>在“朋友”页面上，当用户点击右上角的搜索图标左侧的一个类似眼睛的标志时，该标志没有响应或不显示任何预期的功能或反馈。</t>
         </is>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>朋友 页面 点击 右上角 搜索 图标 左侧 类似 眼睛 标志 标志 没有响应 预期 反馈</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>10010000009810</v>
+      </c>
+      <c r="B50" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5</v>
+      </c>
+      <c r="E50" t="inlineStr">
         <is>
           <t>该软件界面中的“热门群推荐”栏目显示为空，没有展示任何内容。</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>界面 热门 群 推荐 栏目 为空 没有 展示 内容</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>10010000008007</v>
+      </c>
+      <c r="B51" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" t="inlineStr">
         <is>
           <t>该软件在发起群聊并添加成员后，若网络连接断开，用户在输入关键字时系统并未给予网络断开的提示。</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>发起 群聊 添加 成员 网络连接 断开 输入 关键字 系统 并未 给予 网络 断开 提示</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>10010000008317</v>
+      </c>
+      <c r="B52" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>5</v>
+      </c>
+      <c r="E52" t="inlineStr">
         <is>
           <t>在登录后，当用户从“朋友”页面发起群聊并点击搜索时，如果网络被断开，系统并没有给予用户相应的网络断开提示。相反，它继续显示搜索界面，导致用户无法正确识别和响应网络连接问题。</t>
         </is>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>登录 朋友 页面 发起 群聊 点击 搜索 网络 断开 系统 没有 给予 相应 网络 断开 提示 相反 继续 搜索 界面 无法 正确 识别 响应 网络连接</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>10010000009632</v>
+      </c>
+      <c r="B53" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>5</v>
+      </c>
+      <c r="E53" t="inlineStr">
         <is>
           <t>在有网络连接的情况下，用户能够顺利进入群组。然而，当网络断开后，用户尝试在搜索框中输入已有的群名称时，系统并未给出任何关于网络连接状态的提示或警告，尽管实际上网络已经断开。</t>
         </is>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>网络连接 情况 能够 顺利 进入 群组 网络 断开 搜索 框中 输入 已有 群 名称 系统 并未 给出 网络连接 状态 提示 警告 实际上 网络 断开</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>10010000009136</v>
+      </c>
+      <c r="B54" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
+      <c r="C54" t="n">
+        <v>5</v>
+      </c>
+      <c r="D54" t="n">
+        <v>5</v>
+      </c>
+      <c r="E54" t="inlineStr">
         <is>
           <t>该软件中存在一个权限设置的bug。在进行完操作11之后，用户在操作步骤10中选择的群权限为“不允许任何加入”。然而，当用户进入群设置时，这个设置并不能正确地生效。这意味着尽管用户已经设置了不允许任何人加入，但在实际操作中，这个设置并没有被正确地应用，导致与预期不符的结果。</t>
         </is>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>权限 设置 进行 完 11 之后 操作步骤 10 选择 群 权限 允许 加入 进入 群 设置 设置 不能 正确 生效 意味着 设置 允许 任何人 加入 实际操作 设置 没有 正确 应用 预期 不符</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>10010000009046</v>
+      </c>
+      <c r="B55" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>5</v>
+      </c>
+      <c r="E55" t="inlineStr">
         <is>
           <t>该软件在创建群聊时存在bug。当用户试图添加超过21名联系人到一个新的群聊时，系统允许用户点击确定按钮并输入群名称，但在点击右上角创建群聊的按钮后，尽管界面上显示了操作已完成，实际上群聊并没有成功创建。更糟糕的是，即使操作失败，系统也没有提供任何错误提示或警告信息，导致用户无法得知问题所在，也无法采取适当的措施来修正错误。</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>创建 群聊 试图 添加 超过 21 名 联系人 新 群聊 系统 允许 点击 确定 按钮 输入 群 名称 点击 右上角 创建 群聊 按钮 界面 完成 实际上 群聊 没有 成功 创建 更 糟糕 失败 系统 没有 提供 错误 提示 警告 信息 无法 得知 问题所在 无法 采取 适当 措施 修正 错误</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>10010000008753</v>
+      </c>
+      <c r="B56" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
         <is>
           <t>用户在尝试更改其用户名后，发现当他加入群聊时，显示的仍然是他之前设置的旧用户名。这表示在更新用户名的过程中可能存在某种延迟或错误，使得用户的新用户名未能及时更新到群聊中。</t>
         </is>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>更改 用户名 发现 加入 群聊 仍然 之前 设置 旧 用户名 表示 更新 用户名 过程 某种 延迟 错误 新 用户名 未能 及时 更新 群聊</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>10010000008867</v>
+      </c>
+      <c r="B57" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
+      <c r="C57" t="n">
+        <v>3</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
         <is>
           <t>敏感词汇不提醒，例如账号、密码、银行卡号等等，用户不易识别</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>敏感 词汇 提醒 账号 密码 银行卡 号 不易 识别</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>10010000008430</v>
+      </c>
+      <c r="B58" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
+      <c r="C58" t="n">
+        <v>3</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5</v>
+      </c>
+      <c r="E58" t="inlineStr">
         <is>
           <t>该软件在网络连接状态未知的情况下，尝试查询群信息时出现了失败的情况。尽管操作未能完成，但用户并未收到任何关于失败原因的明确提示，这可能导致用户对软件的功能或其当前状态产生误解。</t>
         </is>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>网络连接 状态 未知 情况 查询 群 信息 出现 失败 情况 未能 完成 并未 收到 失败 原因 明确 提示 软件 当前 状态 产生误解</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>10010000008047</v>
+      </c>
+      <c r="B59" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>5</v>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>该软件在执行群聊创建功能时存在一个严重的bug。当用户选择某个联系人并输入群聊名称后，系统并未给用户提供一个确认步骤，导致被选中的用户会自动加入群聊，而没有给用户拒绝的机会。这可能导致用户感到不满和困扰，因为他们可能并不想加入这个群聊，但系统的操作使他们不得不这样做。这种设计缺陷可能会对用户体验造成负面影响。</t>
         </is>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>执行 群聊 创建 严重 选择 联系人 输入 群聊 名称 系统 并未 提供 确认 选中 自动 加入 群聊 没有 拒绝 机会 感到 不满 困扰 不想 加入 群聊 系统 不得不 做 设计 缺陷 造成 负面影响</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>10010000008147</v>
+      </c>
+      <c r="B60" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
+      <c r="C60" t="n">
+        <v>4</v>
+      </c>
+      <c r="D60" t="n">
+        <v>5</v>
+      </c>
+      <c r="E60" t="inlineStr">
         <is>
           <t>描述：在聊天界面中成功分享内容后，提示框的按钮文字显示为“返回QQ浏览器”而不是预期的“返回JayMe”。同时，在QQ聊天界面中，分享内容的来源标注有误，应为“来自JayMe”，但实际显示为其他不相关的信息。</t>
         </is>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>聊天 界面 成功 分享 内容 提示框 按钮 文字 返回 QQ 浏览器 预期 返回 JayMe QQ 聊天 界面 分享 内容 来源 标注 有误 应为 JayMe 相关 信息</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>10010000009578</v>
+      </c>
+      <c r="B61" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>5</v>
+      </c>
+      <c r="E61" t="inlineStr">
         <is>
           <t>当用户被别人拉入群时，不经过用户同意，用户就进入群聊，可能导致用户进入许多不想进的群。</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>拉入 群时 同意 进入 群聊 进入 不想 进 群</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>10010000008333</v>
+      </c>
+      <c r="B62" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>5</v>
+      </c>
+      <c r="E62" t="inlineStr">
         <is>
           <t>根据提供的图片和问题描述，这个bug涉及到“杰迷吧”软件的热门群推荐功能。具体来说，该功能没有达到预期效果，因为当前版本的软件并未展示出上限的热门群推荐内容。这可能意味着用户在尝试查看热门群推荐时遇到了困难，或者系统未能正确地显示推荐的群组信息。</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>提供 图片 涉及 杰迷 软件 热门 群 推荐 具体来说 没有 达到 预期 效果 当前 版本 软件 并未 展示 出 上限 热门 群 推荐 内容 意味着 查看 热门 群 推荐 遇到 困难 系统 未能 正确 推荐 群组 信息</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>10010000009369</v>
+      </c>
+      <c r="B63" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+      <c r="D63" t="n">
+        <v>5</v>
+      </c>
+      <c r="E63" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，当用户被拉进群聊时，系统没有提供任何提示或警告信息给用户。在用户不知情的情况下，他们直接被加入到群聊中，这可能对用户的体验和信息安全造成影响。</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>被拉进 群聊 系统 没有 提供 提示 警告 信息 不知情 情况 加入 群聊 信息安全 造成</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>10010000008128</v>
+      </c>
+      <c r="B64" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
+      <c r="C64" t="n">
+        <v>3</v>
+      </c>
+      <c r="D64" t="n">
+        <v>5</v>
+      </c>
+      <c r="E64" t="inlineStr">
         <is>
           <t>输入b，查找群后，在查询结果中页面最下面没有提示已看完全部内容。</t>
         </is>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>输入 b 查找 群后 查询 页面 下面 没有 提示 完全 部 内容</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>10010000009527</v>
+      </c>
+      <c r="B65" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5</v>
+      </c>
+      <c r="E65" t="inlineStr">
         <is>
           <t>在我的群组里，如果要新增群聊需要点击右上角，加入群才可以，如果第一次使用的用户可能会找不到这个入口，可以在右下角添加一个“加号”的标志，这样就一目了然了</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>群组 里 新增 群聊 点击 右上角 加入 群才 第一次 找 不到 入口 右下角 添加 加号 标志 一目了然</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>10010000008073</v>
+      </c>
+      <c r="B66" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
+      <c r="C66" t="n">
+        <v>3</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>在软件界面中，用户点击了眼睛图标的按钮，但该功能并未如预期那样工作。</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>软件 界面 点击 眼睛 图标 按钮 并未 预期 工作</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>10010000009247</v>
+      </c>
+      <c r="B67" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
+      <c r="C67" t="n">
+        <v>2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>在软件界面的聊天功能中，当用户选择“设置”快捷短语作为输入内容时，系统错误地将其识别为普通文本。这导致用户的输入意图与显示结果不符，给用户带来了混淆和不便。</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>软件 界面 聊天 选择 设置 快捷 短语 输入 内容 系统 错误 识别 普通 文本 输入 意图 不符 带来 混淆 不便</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>10010000008475</v>
+      </c>
+      <c r="B68" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
+      <c r="C68" t="n">
+        <v>4</v>
+      </c>
+      <c r="D68" t="n">
+        <v>5</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>该软件在创建群聊时存在功能不一致的问题。当用户选择21个用户创建群聊时，系统不会立即进行提醒，只有在输入群名后才会给出提示。这与已经建立的群聊添加成员的功能形成对比，后者在选择21个用户时会立即给出提示。此外，当系统给出提示时，它会调出手机的输入框，这对于用户体验来说是不必要的，可能会造成困扰。</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>创建 群聊 一致 选择 21 创建 群聊 系统 不会 立即 进行 提醒 输入 群名 给出 提示 建立 群聊 添加 成员 形成 选择 21 时会 立即 给出 提示 系统 给出 提示 它会 调出 手机 输入框 不必要 造成 困扰</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>10010000009408</v>
+      </c>
+      <c r="B69" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>这个bug描述了一个软件中存在的重复加群请求的问题。在用户已经在一个群里的情况下，系统仍然允许他们申请加入同一个群，这可能导致用户的困惑和混淆。此外，用户的上一个加群请求尚未处理，而另一个新的请求已经发送，这种设计可能会使用户感到不便。</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>软件 重复 加群 请求 群里 情况 系统 仍然 允许 申请加入 同一个 群 困惑 混淆 加群 请求 尚未 处理 新 请求 发送 设计 感到 不便</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>10010000009045</v>
+      </c>
+      <c r="B70" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
+      <c r="C70" t="n">
+        <v>4</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5</v>
+      </c>
+      <c r="E70" t="inlineStr">
         <is>
           <t>问题描述：用户尝试分享APP内的内容到群聊，但在点击相关功能后，应用程序闪退并没有显示预期的网页。用户的网络连接是稳定的，且网速正常。</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>分享 APP 内容 群聊 点击 相关 应用程序 闪退 没有 预期 网页 网络连接 稳定 网速 正常</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>10010000008950</v>
+      </c>
+      <c r="B71" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
+      <c r="C71" t="n">
+        <v>3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>加入群聊没有门槛  ，可直接加入  。
 会造成一定的危险</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>加入 群聊 没有 门槛     加入     
  造成 一定 危险</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>10010000008527</v>
+      </c>
+      <c r="B72" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>该软件在用户试图通过点击“发起群聊”按钮来创建新群时遇到了问题。用户需要选择至少一个好友才能进入新建群的页面进行设置，包括群的名称和权限。然而，当用户尝试点击群组页面右上角的选项时，他们无法进入任何相应的设置或编辑页面，这导致了用户体验的中断。</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>试图 点击 发起 群聊 按钮 创建 新群 遇到 选择 至少 好友 进入 新建 群 页面 进行 设置 包括 群 名称 权限 点击 群组 页面 右上角 选项 无法 进入 相应 设置 编辑 页面 中断</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>10010000008188</v>
+      </c>
+      <c r="B73" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5</v>
+      </c>
+      <c r="E73" t="inlineStr">
         <is>
           <t>对于虚管理员允许才能加入的群，在退出后，通过查找群信息，无法加入该群，并且不提示需管理员允许，属于功能不完整bug</t>
         </is>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>虚 管理员 允许 加入 群 退出 查找 群 信息 无法 加入 该群 提示 需 管理员 允许 属于 完整</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>10010000008359</v>
+      </c>
+      <c r="B74" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
+      <c r="C74" t="n">
+        <v>4</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
         <is>
           <t>该界面中存在一个眼睛状的图标，用户对其功能和作用感到困惑。此外，在查找按钮左侧似乎有一个不明确的元素，其具体功能和用途不明显。</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>界面 眼睛 状 图标 作用 感到 困惑 查找 按钮 左侧 明确 元素 具体 用途 明显</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>10010000008280</v>
+      </c>
+      <c r="B75" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
+      <c r="C75" t="n">
+        <v>3</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
         <is>
           <t>同一个用户，选择同样的人，创建同一个名字的群可以成功，应用也没有相应的提示。</t>
         </is>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>同一个 选择 同样 创建 同一个 名字 群 成功 应用 没有 相应 提示</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>10010000008645</v>
+      </c>
+      <c r="B76" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
+      <c r="C76" t="n">
+        <v>3</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5</v>
+      </c>
+      <c r="E76" t="inlineStr">
         <is>
           <t>前提条件:已经存在一个群聊
 复现步骤:
@@ -1739,7 +2434,7 @@
 预期结果:跟新建群聊原则一致，提示输入不能为空</t>
         </is>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>前提条件 : 群聊 
  复现 : 
@@ -1748,3139 +2443,4795 @@
  预期 : 新建 群聊 原则 一致 提示 输入 不能 为空</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>10010000008587</v>
+      </c>
+      <c r="B77" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
+      <c r="C77" t="n">
+        <v>4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5</v>
+      </c>
+      <c r="E77" t="inlineStr">
         <is>
           <t>该软件的“快捷回复”功能似乎存在一个严重的bug。用户无法更改他们之前创建或系统提供的任何快捷回复信息，这限制了用户自定义和更新他们的回复选项的能力。此问题可能会对用户的体验造成不便，因为他们不能根据需要更新或修改他们的预设回复内容。</t>
         </is>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>快捷 回复 严重 无法 更改 之前 创建 系统 提供 快捷 回复 信息 限制 自定义 更新 回复 选项 能力 造成 不便 不能 更新 修改 预设 回复 内容</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>10010000009935</v>
+      </c>
+      <c r="B78" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
+      <c r="C78" t="n">
+        <v>4</v>
+      </c>
+      <c r="D78" t="n">
+        <v>5</v>
+      </c>
+      <c r="E78" t="inlineStr">
         <is>
           <t>在查找群功能中，用户只能看到他们已经加入的群。</t>
         </is>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>查找 群 只能 看到 加入 群</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>10010000008307</v>
+      </c>
+      <c r="B79" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
+      <c r="C79" t="n">
+        <v>3</v>
+      </c>
+      <c r="D79" t="n">
+        <v>5</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>在群设置界面中，当非管理人员尝试点击“发起聊天”按钮时，该功能没有产生任何反应或反馈，导致用户难以理解是否操作成功或者软件是否存在故障。此外，用户期望的是在点击后能得到某种形式的提示，以确认其操作是否被接受。目前，只有在点击群组时，该功能才会作出响应，这增加了用户的困惑和不便。</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>群 设置 界面 当非 管理人员 点击 发起 聊天 按钮 没有 产生 反应 反馈 难以 理解 是否 成功 软件 是否 故障 期望 点击 后能 得到 某种 形式 提示 确认 是否 接受 目前 点击 群组 作出 响应 增加 困惑 不便</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>10010000008572</v>
+      </c>
+      <c r="B80" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
+      <c r="C80" t="n">
+        <v>3</v>
+      </c>
+      <c r="D80" t="n">
+        <v>5</v>
+      </c>
+      <c r="E80" t="inlineStr">
         <is>
           <t>问题描述：在群设置界面中，当非管理员用户点击“发起聊天”功能时，该功能没有产生任何反应，且没有任何提示信息显示给用户。这导致用户可能会误解软件存在问题，认为只有在点击群组时才能触发该功能。对于非管理人员而言，当点击该功能时，应有相应的提示以告知用户其操作已被识别，从而确保用户的使用体验和理解。</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>群 设置 界面 当非 管理员 点击 发起 聊天 没有 产生 反应 没有 提示信息 误解 软件 认为 点击 群组 触发 非 管理人员 点击 应有 相应 提示 告知 识别 确保 理解</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>10010000008408</v>
+      </c>
+      <c r="B81" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="n">
+        <v>4</v>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>在与好友聊天并尝试发送照片时，用户点击“确定”按钮后，应用程序突然停止响应。随后，手机屏幕显示为白色，经过短暂的等待，应用主页面重新出现。</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>好友 聊天 发送 照片 点击 确定 按钮 应用程序 突然 停止 响应 手机 屏幕显示 白色 短暂 等待 应用 主 页面 重新 出现</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>10010000009759</v>
+      </c>
+      <c r="B82" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
         <is>
           <t>在当前软件中，当用户尝试邀请陌生人加入群聊时，系统没有要求用户的明确许可或同意。这可能导致用户的隐私和安全受到威胁，因为用户可能不知道他们的联系人列表已被修改或被外部人员访问。这种设计不合理，可能会引起用户的不满和担忧。</t>
         </is>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>当前 软件 邀请 陌生人 加入 群聊 系统 没有 要求 明确 许可 同意 隐私 安全 威胁 知道 联系人 列表 修改 外部 人员 访问 设计 不合理 引起 不满 担忧</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>10010000009230</v>
+      </c>
+      <c r="B83" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
         <is>
           <t>在群聊中@某个人的时候没有提醒，当别人@我的时候，我没有收到任何提示，只能在群聊中看到她@我</t>
         </is>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>群聊 @ 没有 提醒 @ 没有 收到 提示 只能 群聊 看到 @</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>10010000009270</v>
+      </c>
+      <c r="B84" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
         <is>
           <t>改名后显示出来的信息没有变，但是点开头像查看个人资料时显示的却是更改过后的名字（左面图为点击个人资料显示的名字，右为正常显示出的曾用名“源77”）</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>改名 信息 没有 变 点 开头 查看 个人资料 却是 更改 过后 名字 左面 图为 点击 个人资料 名字 右为 正常 出 曾用名 源 77</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>10010000008760</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="n">
+        <v>4</v>
+      </c>
+      <c r="E85" t="inlineStr">
         <is>
           <t>点击申请加入群后，页面没有正确显示群简介的具体内容。无论是需要验证消息的群还是不允许加入的群，预期中应显示的群简介信息都没有在界面上出现，导致用户无法获取他们期望的信息。</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>点击 申请加入 群后 页面 没有 正确 群 简介 具体内容 无论是 验证 消息 群 允许 加入 群 预期 中应 群 简介 信息 没有 界面 出现 无法 获取 期望 信息</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>10010000009379</v>
+      </c>
+      <c r="B86" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
+      <c r="C86" t="n">
+        <v>3</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
         <is>
           <t>问题描述：在群聊助手的界面中，当一个用户作为群主拒绝另一个用户加入该群后，被拒绝的用户似乎能够无限次数地重新申请加入该群。此外，软件界面并未提供一个“黑名单”功能，使得管理员无法将特定用户从系统中完全移除。这可能导致管理混乱和用户体验问题。</t>
         </is>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>群聊 助手 界面 群主 拒绝 加入 群后 拒绝 能够 无限 次数 重新 申请加入 该群 软件 界面 并未 提供 黑名单 管理员 无法 特定 系统 完全 移除 管理混乱</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>10010000008871</v>
+      </c>
+      <c r="B87" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="C87" t="n">
+        <v>3</v>
+      </c>
+      <c r="D87" t="n">
+        <v>5</v>
+      </c>
+      <c r="E87" t="inlineStr">
         <is>
           <t>在群组设置界面中，下拉刷新的操作导致了不合理的显示效果。当用户尝试下拉刷新时，不仅整个界面的刷新提示出现，而且群成员那一栏也同时被刷新。这种设计是不合理的，因为如果每个栏目都独立进行刷新，那么整个界面的刷新就变得多余，特别是当只关心群成员信息时。此外，这样的设计可能会给用户带来混淆，因为它并没有明确区分哪些部分正在进行更新或刷新。</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>群组 设置 界面 拉 刷新 不合理 效果 拉 刷新 整个 界面 刷新 提示 出现 群 成员 一栏 刷新 设计 不合理 每个 栏目 独立 进行 刷新 整个 界面 刷新 变得 多余 特别 关心 群 成员 信息 设计 带来 混淆 没有 明确 区分 部分 正在 进行 更新 刷新</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>10010000008632</v>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="C88" t="n">
+        <v>3</v>
+      </c>
+      <c r="D88" t="n">
+        <v>5</v>
+      </c>
+      <c r="E88" t="inlineStr">
         <is>
           <t>用户注册的过程中部分手机号码段输入错误无法识别</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>用户注册 过程 部分 手机号码 段 输入 错误 无法 识别</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>10010000008593</v>
+      </c>
+      <c r="B89" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
+      <c r="C89" t="n">
+        <v>3</v>
+      </c>
+      <c r="D89" t="n">
+        <v>5</v>
+      </c>
+      <c r="E89" t="inlineStr">
         <is>
           <t>该应用商城里面没有商品选择类型，望改进</t>
         </is>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>应用 商城 里面 没有 商品 选择 类型 改进</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>10010000009551</v>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="C90" t="n">
+        <v>4</v>
+      </c>
+      <c r="D90" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" t="inlineStr">
         <is>
           <t>问题描述：在创建群的时候，如果尝试使用全为空格号的名字进行输入，系统不允许用户保存。然而，当在空格号后面添加其他字符或文字后，系统会接受并保存该名字，此时前面的空格被忽略，导致实际显示的名字与用户期望的不符。</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>创建 群 全为 空格 号 名字 进行 输入 系统 允许 保存 空格 号 后面 添加 字符 文字 系统 接受 保存 名字 前面 空格 忽略 名字 期望 不符</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>10010000008764</v>
+      </c>
+      <c r="B91" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
+      <c r="C91" t="n">
+        <v>4</v>
+      </c>
+      <c r="D91" t="n">
+        <v>5</v>
+      </c>
+      <c r="E91" t="inlineStr">
         <is>
           <t>在朋友界面中，右上角的“聊天”按钮旁边的第一个眼睛状的功能按钮（通常用于显示或隐藏在线状态）无法被点击。尝试点击该按钮时，它没有任何反应或切换功能。</t>
         </is>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>朋友 界面 右上角 聊天 按钮 旁边 第一个 眼睛 状 按钮 通常 用于 隐藏 在线 状态 无法 点击 点击 按钮 没有 反应 切换</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>10010000008798</v>
+      </c>
+      <c r="B92" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
+      <c r="C92" t="n">
+        <v>4</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5</v>
+      </c>
+      <c r="E92" t="inlineStr">
         <is>
           <t>该软件界面的“朋友”Tab下存在一个眼睛形状的按钮，用户点击时没有产生预期的反应或提示。</t>
         </is>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>界面 朋友 Tab 眼睛 形状 按钮 点击 没有 产生 预期 反应 提示</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>10010000009305</v>
+      </c>
+      <c r="B93" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
+      <c r="C93" t="n">
+        <v>4</v>
+      </c>
+      <c r="D93" t="n">
+        <v>5</v>
+      </c>
+      <c r="E93" t="inlineStr">
         <is>
           <t>在“商城”tab下，用户点击广告轮播中的一个广告时，系统错误地提示网络连接不可用。尽管用户的设备实际上已连接到互联网，但应用程序仍然显示了这一错误信息。</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>商城 tab 点击 广告 轮播 广告 系统 错误 提示 网络连接 不可 设备 实际上 连接 互联网 应用程序 仍然 错误信息</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>10010000009296</v>
+      </c>
+      <c r="B94" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
+      <c r="C94" t="n">
+        <v>4</v>
+      </c>
+      <c r="D94" t="n">
+        <v>5</v>
+      </c>
+      <c r="E94" t="inlineStr">
         <is>
           <t>在搜索结果界面中，没有出现预期的确认跳转按钮。用户只能依赖手机自带的点击确认功能来完成操作，这可能导致用户体验不佳，增加了操作的复杂性。</t>
         </is>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>搜索 界面 没有 出现 预期 确认 跳转 按钮 只能 依赖 手机 自带 点击 确认 完成 不佳 增加 复杂性</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>10010000009791</v>
+      </c>
+      <c r="B95" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
         <is>
           <t>在软件界面中，用户尝试拒绝群邀请。然而，当用户点击“拒绝”后，系统并未提供明确的信息告知用户已拒绝了哪个群的邀请。这可能导致用户感到困惑和不确定他们是否真的成功地拒绝了邀请。</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>软件 界面 拒绝 群 邀请 点击 拒绝 系统 并未 提供 明确 信息 告知 拒绝 群 邀请 感到 困惑 确定 是否 真的 成功 拒绝 邀请</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>10010000008819</v>
+      </c>
+      <c r="B96" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
+      <c r="C96" t="n">
+        <v>4</v>
+      </c>
+      <c r="D96" t="n">
+        <v>5</v>
+      </c>
+      <c r="E96" t="inlineStr">
         <is>
           <t>该软件在登录时无法正确显示邮箱地址中的“@”符号，导致用户无法正常登录。同时，在发起群聊功能中存在缺陷，导致对方无法对邀请进行正常的同意或拒绝操作，只能接受并开始群聊。另外，在被邀请加入群聊时，用户也无法进行正常的同意或拒绝操作，只能选择加入该群。这些问题均属于软件界面和功能逻辑方面的问题，需要进一步的调试和优化。</t>
         </is>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>登录 无法 正确 邮箱地址 @ 符号 无法 正常 登录 发起 群聊 缺陷 无法 邀请 进行 正常 同意 拒绝 只能 接受 群聊 邀请 加入 群聊 无法 进行 正常 同意 拒绝 只能 选择 加入 该群 均 属于 软件 界面 逻辑 方面 进一步 调试 优化</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>10010000009478</v>
+      </c>
+      <c r="B97" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
+      <c r="C97" t="n">
+        <v>3</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="inlineStr">
         <is>
           <t>该图像显示了一个手机屏幕截图，其中包含一个时间戳“15:50”，以及网络状态指示符“Wi-Fi”和电池图标“4G”。屏幕的顶部有一个向左的箭头，可能表示返回功能。中间部分显示了中文文字“干活”，这可能是一个标题或关键词。底部有两个向右的箭头，通常用于导航到下一页或关闭当前界面。
 关于问题描述：“对无符合条件群组无响应”，这似乎指的是某个应用程序或系统在处理没有满足特定条件的群组时出现了某种故障或错误。然而，从这张图片中我们无法直接得知具体的bug细节，例如是崩溃、加载失败还是其他类型的响应问题。此外，图片本身并未提供任何与该bug相关的视觉线索或代码片段。</t>
         </is>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>手机 屏幕 截图 包含 时间 戳 15 : 50 网络 状态 指示 符 Wi - Fi 电池 图标 4G 屏幕 顶部 左 箭头 表示 返回 中间 部分 中文 文字 干活 标题 关键词 底部 两个 右 箭头 通常 用于 导航 一页 关闭 当前 界面 
  符合条件 群组 响应 指 应用程序 系统 处理 没有 满足 特定条件 群组 出现 某种 故障 错误 图片 无法 得知 具体 细节 崩溃 加载 失败 类型 响应 图片 并未 提供 相关 视觉 线索 代码 片段</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>10010000009407</v>
+      </c>
+      <c r="B98" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
+      <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>5</v>
+      </c>
+      <c r="E98" t="inlineStr">
         <is>
           <t>该bug描述如下：
 当用户新建群并定义入群条件为“直接加入”时，群资料页面上有一个亮起的按钮表示可以直接加入。但当用户的入群条件更改为“需要批准”后，该按钮仍然保持亮起状态，与新的设置不符。这可能导致用户在尝试修改设置时产生混淆，因为他们可能会误以为即使更改了入群条件，成员仍可以直接加入群。</t>
         </is>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t xml:space="preserve">
  新建 群 定义 入群 加入 群 资料 页面 亮起 按钮 表示 加入 入群 更 改为 批准 按钮 仍然 保持 亮 状态 新 设置 不符 修改 设置 产生 混淆 误以为 更改 入群 成员 加入 群</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>10010000009112</v>
+      </c>
+      <c r="B99" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
+      <c r="C99" t="n">
+        <v>3</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
         <is>
           <t>在这张图片中，我们看到一个群聊界面。根据图中的文字内容，可以推断出这是一个即时通讯软件的截图。文字描述了一个人退出群聊时没有显示“某某某已经退出该群”的信息。这可能意味着在该软件的版本或设置中存在一个问题，导致用户无法获得他们退出群聊的确认消息。这个问题可能会给用户带来困惑和不便，因为他们无法得知自己是否成功退出了群聊。为了解决这个问题，可能需要更新软件版本或者检查相关的设置选项。</t>
         </is>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>图片 看到 群聊 界面 图中 文字 内容 推断出 即时通讯 软件 截图 文字描述 退出 群聊 没有 某某某 退出 该群 信息 意味着 版本 设置 无法 获得 退出 群聊 确认 消息 带来 困惑 不便 无法 得知 是否 成功 退出 群聊 解决 更新 软件 版本 检查 相关 设置 选项</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>10010000009096</v>
+      </c>
+      <c r="B100" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
+      <c r="C100" t="n">
+        <v>3</v>
+      </c>
+      <c r="D100" t="n">
+        <v>5</v>
+      </c>
+      <c r="E100" t="inlineStr">
         <is>
           <t>该应用程序中的“送花”功能似乎存在一个bug。用户在尝试点击送两朵花的按钮时，发现选项并没有显示出来。这可能意味着界面元素没有正确加载，或者相关的功能代码存在问题。</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>应用程序 送花 点击 送 两朵花 按钮 发现 选项 没有 意味着 界面 元素 没有 正确 加载 相关 代码</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>10010000009398</v>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
+      <c r="C101" t="n">
+        <v>3</v>
+      </c>
+      <c r="D101" t="n">
+        <v>5</v>
+      </c>
+      <c r="E101" t="inlineStr">
         <is>
           <t>问题描述：软件界面中缺少分享和转发的按钮，导致用户无法进行这两项功能的操作。</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>软件 界面 缺少 分享 转发 按钮 无法 进行 这两项</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>10010000009654</v>
+      </c>
+      <c r="B102" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
+      <c r="C102" t="n">
+        <v>3</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3</v>
+      </c>
+      <c r="E102" t="inlineStr">
         <is>
           <t>1.商城的商品没有用户评论的界面，以及详细介绍的界面。
 2 .用户进行订单提交，如果购买多个没有给出总价，用户只能自己累加金额</t>
         </is>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>. 商城 商品 没有 评论 界面 详细 介绍 界面 
    . 进行 订单 提交 购买 多个 没有 给出 总价 只能 累加 金额</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>10010000009441</v>
+      </c>
+      <c r="B103" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
+      <c r="C103" t="n">
+        <v>3</v>
+      </c>
+      <c r="D103" t="n">
+        <v>5</v>
+      </c>
+      <c r="E103" t="inlineStr">
         <is>
           <t>点击右上方的“花”图案进入“送花给杰伦！”界面，图上可见我共有3朵花，然而选择送花数量的时候只能选择1或3，无法直接选择送2朵。</t>
         </is>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>点击 右上方 花 图案 进入 送花 杰伦 界面 图上 共有 朵花 选择 送花 数量 只能 选择 无法 选择 送 朵</t>
         </is>
       </c>
-      <c r="C103" t="inlineStr">
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>10010000009553</v>
+      </c>
+      <c r="B104" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
+      <c r="C104" t="n">
+        <v>3</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
         <is>
           <t>该调色板显示了色彩选择，但似乎无法正确响应用户的交互。在用户尝试调整颜色比例时，73%的进度指示器没有反应，表明软件可能未能正确更新或展示所选颜色的混合比例。此外，界面上的某些部分（如清空和发送按钮）似乎被遮挡或隐藏，这暗示了UI布局的问题，可能导致用户无法执行某些操作。</t>
         </is>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>调色板 色彩 选择 无法 正确 响应 交互 调整 颜色 比例 73% 进度 指示器 没有 反应 表明 软件 未能 正确 更新 展示 选 颜色 混合 比例 界面 部分 清空 发送 按钮 遮挡 隐藏 暗示 UI 布局 无法 执行</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>10010000009333</v>
+      </c>
+      <c r="B105" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
+      <c r="C105" t="n">
+        <v>3</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5</v>
+      </c>
+      <c r="E105" t="inlineStr">
         <is>
           <t>该软件在断开手机网络后，群组设置界面和正常联网时的行为一致，没有提供任何网络状态提示。然而，当用户尝试修改资料时，系统却错误地提示网络不可用。实际上，这应该是预期的行为，因为用户已经处于断网状态。这种不一致的用户交互可能会导致用户的困惑或操作上的障碍。</t>
         </is>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>断开 手机 网络 群组 设置 界面 正常 联网 行为 一致 没有 提供 网络 状态 提示 修改 资料 系统 错误 提示 网络 不可 实际上 应该 预期 行为 处于 断网 状态 一致 交互 困惑 障碍</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>10010000009795</v>
+      </c>
+      <c r="B106" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
+      <c r="C106" t="n">
+        <v>2</v>
+      </c>
+      <c r="D106" t="n">
+        <v>5</v>
+      </c>
+      <c r="E106" t="inlineStr">
         <is>
           <t>搜索时通过数字，字母，符号，中文，空格等查找时，中文和符号能准确查找，数字，字母和空格不能准确查找，</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>搜索 数字 字母 符号 中文 空格 查找 中文 符号 准确 查找 数字 字母 空格 不能 准确 查找</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>10010000009804</v>
+      </c>
+      <c r="B107" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="C107" t="n">
+        <v>4</v>
+      </c>
+      <c r="D107" t="n">
+        <v>5</v>
+      </c>
+      <c r="E107" t="inlineStr">
         <is>
           <t>在搜索群聊时，热门推荐栏目显示为空。</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>搜索 群聊 热门 推荐 栏目 为空</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>10010000009745</v>
+      </c>
+      <c r="B108" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="C108" t="n">
+        <v>3</v>
+      </c>
+      <c r="D108" t="n">
+        <v>3</v>
+      </c>
+      <c r="E108" t="inlineStr">
         <is>
           <t>该软件界面中存在一个明显的功能问题。具体来说，用户点击“眼装”按钮后，没有任何反应，也不清楚这个按钮的功能是什么。这可能导致用户在使用过程中感到困惑和挫败，因为他们无法明确地知道如何通过这个功能来达到他们的目的。</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>界面 明显 具体来说 点击 眼装 按钮 没有 反应 清楚 按钮 过程 感到 困惑 挫败 无法 明确 知道 达到 目的</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>10010000010005</v>
+      </c>
+      <c r="B109" t="inlineStr">
         <is>
           <t>功能不完整</t>
         </is>
       </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="C109" t="n">
+        <v>3</v>
+      </c>
+      <c r="D109" t="n">
+        <v>5</v>
+      </c>
+      <c r="E109" t="inlineStr">
         <is>
           <t>在进行到主要步骤的步骤2时，系统未能正确执行预期的操作，而是创建了一个新的群。</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>进行 系统 未能 正确 执行 预期 创建 新 群</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>功能不完整</t>
-        </is>
-      </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="A110" t="n">
+        <v>10010000009735</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>其他</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1</v>
+      </c>
+      <c r="E110" t="inlineStr">
         <is>
           <t>下版本可以考虑添加“热门群推荐功能”</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>版本 考虑 添加 热门 群 推荐</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>10010000008226</v>
+      </c>
+      <c r="B111" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="C111" t="n">
+        <v>5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>5</v>
+      </c>
+      <c r="E111" t="inlineStr">
         <is>
           <t>这个软件的bug是在后台运行时，当用户重新点击桌面上的APP图标时，系统会重新启动。这可能导致用户在尝试访问应用时遇到延迟或丢失其未保存的数据。</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>软件 后台 运行 重新 点击 桌面上 APP 图标 系统 重新启动 访问 应用 遇到 延迟 丢失 其未 保存 数据</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>10010000008312</v>
+      </c>
+      <c r="B112" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="C112" t="n">
+        <v>3</v>
+      </c>
+      <c r="D112" t="n">
+        <v>3</v>
+      </c>
+      <c r="E112" t="inlineStr">
         <is>
           <t>在使用程序的时候，返回桌面系统，使用系统自带的HOMe键进入APP,程序正常运行。但是在桌面中点击APP会使其应用重启。（此BUG跟第10条一致，但是存在正确的解决方案）</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>程序 返回 桌面 系统 系统 自带 HOMe 键 进入 APP , 程序 正常 运行 桌面 点击 APP 应用 重启 BUG 10 条 一致 正确 解决方案</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>10010000008425</v>
+      </c>
+      <c r="B113" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="C113" t="n">
+        <v>3</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4</v>
+      </c>
+      <c r="E113" t="inlineStr">
         <is>
           <t>在手机分辨率过低的情况下，界面显示异常，导致用户无法正常浏览和操作应用。</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>手机 分辨率 过低 情况 界面显示 异常 无法 正常 浏览 应用</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>10010000008752</v>
+      </c>
+      <c r="B114" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="C114" t="n">
+        <v>3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>3</v>
+      </c>
+      <c r="E114" t="inlineStr">
         <is>
           <t>该软件在用户退出当前账号后，重新打开应用时出现了登录问题。具体表现为每次打开应用都会自动跳转到注册页面，而不是恢复到用户的主页面。这可能表明应用的账户管理系统存在某种配置错误或逻辑问题，导致无法正确识别和恢复用户的登录状态。</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>退出 当前 账号 重新 打开 应用 出现 登录 具体表现 每次 打开 应用 自动 跳转 注册 页面 恢复 主 页面 表明 应用 账户 管理系统 某种 配置 错误 逻辑 无法 正确 识别 恢复 登录 状态</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>10010000009822</v>
+      </c>
+      <c r="B115" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="C115" t="n">
+        <v>3</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5</v>
+      </c>
+      <c r="E115" t="inlineStr">
         <is>
           <t>在vivo手机中，当用户选中图像并点击返回按钮后，预期的结果是回到图像列表界面。然而，实际发生的是用户被重定向到了个人设置界面。这表示软件的返回功能出现了错误，导致用户无法按预期导航到正确的界面。</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>vivo 手机 选中 点击 返回 按钮 预期 回到 列表 界面 发生 重定向 个人 设置 界面 表示 软件 返回 出现 错误 无法 预期 导航 正确 界面</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>10010000009860</v>
+      </c>
+      <c r="B116" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
+      <c r="C116" t="n">
+        <v>3</v>
+      </c>
+      <c r="D116" t="n">
+        <v>3</v>
+      </c>
+      <c r="E116" t="inlineStr">
         <is>
           <t>在修改字体设置时，应用似乎没有正确地处理数据加载。当用户尝试返回到之前的界面时，由于数据的不完全加载，导致聊天界面的字体显示出现错乱。这种错乱不是预期的用户交互行为，可能会影响用户的体验和操作流畅度。</t>
         </is>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>修改 字体 设置 应用 没有 正确 处理 数据 加载 返回 之前 界面 数据 完全 加载 聊天 界面 字体 出现 错乱 错乱 预期 交互 行为 流畅 度</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>10010000009913</v>
+      </c>
+      <c r="B117" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
+      <c r="C117" t="n">
+        <v>3</v>
+      </c>
+      <c r="D117" t="n">
+        <v>3</v>
+      </c>
+      <c r="E117" t="inlineStr">
         <is>
           <t>该图像显示了一个手机应用的个人中心界面，其中关于用户等级的文字信息出现了错乱。在低分辨率下，特别是在三星手机上，文字的布局和大小似乎没有正确适配屏幕，导致用户难以阅读和理解他们的等级状态。这种显示问题可能会给用户带来混淆和不便，影响他们使用个人中心功能的体验。</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>手机 应用 个人 中心 界面 等级 文字 信息 出现 错乱 低分辨率 特别 三星 手机 文字 布局 大小 没有 正确 适配 屏幕 难以 阅读 理解 等级 状态 带来 混淆 不便 个人 中心</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>10010000009969</v>
+      </c>
+      <c r="B118" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
+      <c r="C118" t="n">
+        <v>3</v>
+      </c>
+      <c r="D118" t="n">
+        <v>3</v>
+      </c>
+      <c r="E118" t="inlineStr">
         <is>
           <t>在聊天界面，多点控制改变字体大小后，点击返回键，系统直接重启。用户很容易误操作。</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>聊天 界面 多点 控制 改变 字体大小 点击 返回 键 系统 重启 容易 误操作</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>10010000009362</v>
+      </c>
+      <c r="B119" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
+      <c r="C119" t="n">
+        <v>4</v>
+      </c>
+      <c r="D119" t="n">
+        <v>4</v>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>建群时，输如入了反动的敏感信息，还可以继续建立成功</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>建群 输如入 反动 敏感 信息 继续 建立 成功</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>10010000009057</v>
+      </c>
+      <c r="B120" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5</v>
+      </c>
+      <c r="E120" t="inlineStr">
         <is>
           <t>在聊天应用的界面中，右上角的三个图标中的“公众号”被点击时，没有产生任何反应或功能。此外，该图标旁边的文字说明也不明确其具体功能，导致用户对其作用和用途感到困惑。这种设计可能会给用户带来混淆，影响用户体验。</t>
         </is>
       </c>
-      <c r="B120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>聊天 应用 界面 右上角 三个 图标 公众 号 点击 没有 产生 反应 图标 旁边 文字说明 明确 具体 作用 用途 感到 困惑 设计 带来 混淆</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>10010000008082</v>
+      </c>
+      <c r="B121" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
+      <c r="C121" t="n">
+        <v>3</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5</v>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>描述：在尝试使用JayMe应用程序发送语音消息时，用户遇到了一个软件故障。当系统弹出提示框询问用户是否等待时，用户选择“拒绝”，然后应用显示“JayMe已停止运行”的警告信息。然而，根据问题描述，实际上JayMe应用仍在正常运行，这个警告信息是错误的。</t>
         </is>
       </c>
-      <c r="B121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>JayMe 应用程序 发送 语音 消息 遇到 软件 故障 系统 弹 出 提示框 询问 是否 等待 选择 拒绝 应用 JayMe 停止 运行 警告 信息 实际上 JayMe 应用 正常 运行 警告 信息 错误</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>10010000008457</v>
+      </c>
+      <c r="B122" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
+      <c r="C122" t="n">
+        <v>3</v>
+      </c>
+      <c r="D122" t="n">
+        <v>5</v>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>在公众号的客服部分，存在响应速度慢的问题。当用户提出紧急问题时，客服无法及时给出解释或解决方案。</t>
         </is>
       </c>
-      <c r="B122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>公众 号 客服部 分 响应速度 慢 提出 紧急 客服 无法 及时 给出 解释 解决方案</t>
         </is>
       </c>
-      <c r="C122" t="inlineStr">
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>10010000008293</v>
+      </c>
+      <c r="B123" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="n">
+        <v>5</v>
+      </c>
+      <c r="E123" t="inlineStr">
         <is>
           <t>该手机应用界面中的“查找群”按钮在点击后未能如预期那样直接显示文本输入框，用户无法进行相应的操作。</t>
         </is>
       </c>
-      <c r="B123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>手机 应用 界面 查找 群 按钮 点击 未能 预期 文本 输入框 无法 进行 相应</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>10010000009082</v>
+      </c>
+      <c r="B124" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>5</v>
+      </c>
+      <c r="E124" t="inlineStr">
         <is>
           <t>该软件存在一个漏洞，用户可以通过群聊界面点击群成员列表中的自己来触发与自己的聊天功能。然而，系统并未为用户提供任何提示或警告，这可能会导致用户误操作或者误解软件的功能。</t>
         </is>
       </c>
-      <c r="B124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>漏洞 群聊 界面 点击 群 成员 列表 触发 聊天 系统 并未 提供 提示 警告 误操作 误解 软件</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>10010000009123</v>
+      </c>
+      <c r="B125" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
         <is>
           <t>点击搜索按钮，输入群信息，选择已加入的群组，点击，可直接进入聊天，点击群头像，只显示群信息，与需求（即显示“开始聊天”按钮）不符</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>点击 搜索 按钮 输入 群 信息 选择 加入 群组 点击 进入 聊天 点击 群 头像 群 信息 需求 聊天 按钮 不符</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>10010000009908</v>
+      </c>
+      <c r="B126" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="C126" t="n">
+        <v>3</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
         <is>
           <t>该app无定位功能，用户只能自行选择地址。如果需要修改地址，要去商城购买道具，不是很友好</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>app 定位 只能 自行 选择 地址 修改 地址 商城 购买 道具 友好</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>10010000009644</v>
+      </c>
+      <c r="B127" t="inlineStr">
         <is>
           <t>其他</t>
         </is>
       </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
+      <c r="C127" t="n">
+        <v>3</v>
+      </c>
+      <c r="D127" t="n">
+        <v>4</v>
+      </c>
+      <c r="E127" t="inlineStr">
         <is>
           <t>用户注册时输入密码仅一次，由于密码输入是无法在屏幕上显示，用户极有可能输入与内心所想的不同的密码，如此一来，下次登录时就会遇到很大的问题</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>用户注册 输入 密码 仅 一次 密码 输入 无法 屏幕 极有 输入 内心 所想 不同 密码 如此一来 下次 登录 遇到 很大</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>其他</t>
-        </is>
-      </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="A128" t="n">
+        <v>10010000008099</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>性能</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>2</v>
+      </c>
+      <c r="D128" t="n">
+        <v>3</v>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>该界面的按钮响应速度较慢，有时会出现卡顿现象。用户在点击进入界面时，会遭遇白屏问题，这可能会对用户体验产生负面影响。此外，头像显示存在问题，有时会出现白色背景，需要一段时间才能正常显示。这些问题表明软件的某些功能可能存在性能或兼容性问题。</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>界面 按钮 响应速度 较慢 出现 卡顿 现象 点击 进入 界面 遭遇 白屏 产生 负面影响 头像 出现 白色 背景 一段时间 正常 表明 软件 性能 兼容性问题</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>10010000010027</v>
+      </c>
+      <c r="B129" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="C129" t="n">
+        <v>5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>4</v>
+      </c>
+      <c r="E129" t="inlineStr">
         <is>
           <t>使用app的过程中有电话进来，结束后再次返回出现较长时间等待的情况，反应较慢。和网络信号不太好的时候的反应是一样的。</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>app 过程 中有 电话 进来 结束 再次 返回 出现 较长时间 等待 情况 反应 较慢 网络 信号 不太好 反应</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>10010000008461</v>
+      </c>
+      <c r="B130" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="C130" t="n">
+        <v>3</v>
+      </c>
+      <c r="D130" t="n">
+        <v>4</v>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>在用户登录的情况下，当尝试退出并点击返回按钮时，系统遭遇了未知的错误，导致系统崩溃。</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>登录 情况 退出 点击 返回 按钮 系统 遭遇 未知 错误 导致系统 崩溃</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>10010000008743</v>
+      </c>
+      <c r="B131" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="n">
+        <v>5</v>
+      </c>
+      <c r="E131" t="inlineStr">
         <is>
           <t>当无网络时，消息不能发出，但没有超时限制，一直在尝试发出，直到再次连上网络。这样会占据太多内存，应该设置超时机制，如2分钟发不出则给一个叹号，下次连上网络可以由用户手动发出</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>网络 消息 不能 发出 没有 超时 限制 一直 发出 再次 网络 占据 太 内存 应该 设置 超时 机制 分钟 发不出 叹 号 下次 网络 手动 发出</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>10010000009248</v>
+      </c>
+      <c r="B132" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="C132" t="n">
+        <v>3</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1</v>
+      </c>
+      <c r="E132" t="inlineStr">
         <is>
           <t>@好友是应该有特别提醒，但是没有特别提醒</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>@ 好友 应该 特别 提醒 没有 特别 提醒</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>10010000008794</v>
+      </c>
+      <c r="B133" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="C133" t="n">
+        <v>5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5</v>
+      </c>
+      <c r="E133" t="inlineStr">
         <is>
           <t>页面头按钮不能正常显示</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>页面 头 按钮 不能 正常</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>10010000008417</v>
+      </c>
+      <c r="B134" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="C134" t="n">
+        <v>4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>5</v>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>在网络连接正常的情况下，用户尝试查看视频时，视频会突然跳转到其他网页并显示“网络是不是有问题？”的提示。此外，当断开网络连接后，用户点击赞按钮尝试进行互动时，赞按钮仍然会变色，这暗示了系统未能正确识别和响应用户的交互动作。</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>网络连接 正常 情况 查看 视频 视频 突然 跳转 网页 网络 是不是 提示 断开 网络连接 点击 赞 按钮 进行 互动 赞 按钮 仍然 变色 暗示 系统 未能 正确 识别 响应 交互 动作</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>10010000008723</v>
+      </c>
+      <c r="B135" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="C135" t="n">
+        <v>5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>4</v>
+      </c>
+      <c r="E135" t="inlineStr">
         <is>
           <t>该软件在网络环境良好的实验室测试时，表现出严重的性能问题。当用户进行加入群、创建群、打开群设置和查看用户主页等操作时，软件反应迟缓，需要等待服务器响应长达七八秒甚至十秒。这种延迟极大地影响了用户的使用体验。根据测试结果，建议采取紧急措施来提升软件的性能。</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>网络 环境 良好 实验室 表现 出 严重 性能 进行 加入 群 创建 群 打开 群 设置 查看 主页 软件 反应 迟缓 等待 服务器 响应 长 达 七八 秒 十秒 延迟 极大 建议 采取 紧急措施 提升 软件 性能</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>10010000008997</v>
+      </c>
+      <c r="B136" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>该软件界面中的群设置功能似乎存在显示不一致的问题。当用户将群设置为“不允许任何人加入”后，其他用户在查找该群时，预期看到的是该群的简介信息或当前状态，但实际上看到的却是“不允许加入”。这种显示与设置不符可能导致用户困惑，不清楚该群的实际状态。</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>界面 群 设置 一致 群 设置 允许 任何人 加入 查找 群时 预期 看到 群 简介 信息 当前 状态 实际上 看到 却是 允许 加入 设置 不符 困惑 清楚 该群 状态</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>10010000009297</v>
+      </c>
+      <c r="B137" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1</v>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>该软件存在严重的登录关联问题。当用户先使用QQ登录后，再尝试使用微信登录时，所有先前的记录和数据都消失了。这意味着用户的个人设置、历史活动和其他相关信息无法被正确地保存和同步。此问题可能导致用户体验下降，并可能对用户的隐私和数据安全造成威胁。</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>严重 登录 关联 先 QQ 登录 微信 登录 先前 记录 数据 消失 意味着 个人 设置 历史 活动 相关 信息 无法 正确 保存 同步 下降 隐私 数据安全 造成 威胁</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>10010000009299</v>
+      </c>
+      <c r="B138" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="C138" t="n">
+        <v>3</v>
+      </c>
+      <c r="D138" t="n">
+        <v>4</v>
+      </c>
+      <c r="E138" t="inlineStr">
         <is>
           <t>该软件界面显示了一个群聊助手的消息列表。用户尝试搜索他们之前退出的群聊“大爱君君”，但搜索结果中并未出现该群聊，表明在退出群聊后，该功能无法正确索引已退出的群聊信息，导致用户无法通过搜索框重新找到并加入该群聊。</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>界面显示 群聊 助手 消息 列表 搜索 之前 退出 群聊 大爱君君 搜索 并未 出现 群聊 表明 退出 群聊 无法 正确 索引 退出 群聊 信息 无法 搜索 框 重新 找到 加入 群聊</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>10010000009420</v>
+      </c>
+      <c r="B139" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+      <c r="C139" t="n">
+        <v>5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>5</v>
+      </c>
+      <c r="E139" t="inlineStr">
         <is>
           <t>在查找群聊时，当用户输入群号后，系统反馈的信息与设计预期不符。具体来说，提示信息与用户查询的群号无关，而是显示了其他不相关的信息。</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>查找 群聊 输入 群号 系统 反馈 信息 设计 预期 不符 具体来说 提示信息 查询 群号 无关 相关 信息</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>10010000009150</v>
+      </c>
+      <c r="B140" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="C140" t="n">
+        <v>4</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
         <is>
           <t>每个群都有唯一的群号，但群号都是数字。如果有人新建群，并以与群号相同的数字命名群昵称，这样就无法实现精确匹配了。</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>每个 群 唯一 群号 但群 号 数字 有人 新建 群 群号 相同 数字 命名 群 昵称 无法 实现 精确 匹配</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>10010000009700</v>
+      </c>
+      <c r="B141" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="C141" t="n">
+        <v>2</v>
+      </c>
+      <c r="D141" t="n">
+        <v>5</v>
+      </c>
+      <c r="E141" t="inlineStr">
         <is>
           <t>如果网络不好，网络加载出错会重复提示。</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>网络 不好 网络 加载 出错 重复 提示</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>10010000009493</v>
+      </c>
+      <c r="B142" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>4</v>
+      </c>
+      <c r="E142" t="inlineStr">
         <is>
           <t>装了APP后手机无限重启</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>装 APP 手机 无限 重启</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>10010000009724</v>
+      </c>
+      <c r="B143" t="inlineStr">
         <is>
           <t>性能</t>
         </is>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
         <is>
           <t>该应用程序在连续多次打开和关闭后，再次尝试打开时显示“应用停止运行”的错误消息。这可能表明应用程序遇到了某种稳定性问题，导致其无法正常启动。此错误提示通常意味着应用程序的某个关键组件未能正确加载或执行，或者应用程序的内存管理存在问题。</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>应用程序 连续 多次 打开 关闭 再次 打开 应用 停止 运行 错误 消息 表明 应用程序 遇到 某种 稳定性 无法 正常 启动 错误 提示 通常 意味着 应用程序 关键 组件 未能 正确 加载 执行 应用程序 内存 管理</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>性能</t>
-        </is>
-      </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="A144" t="n">
+        <v>10010000009350</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>页面布局缺陷</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>3</v>
+      </c>
+      <c r="D144" t="n">
+        <v>5</v>
+      </c>
+      <c r="E144" t="inlineStr">
         <is>
           <t>在查看群详细资料时，用户界面的布局显得过于冗杂和混乱，导致信息展示不清晰。具体来说，群成员数量和群简介的信息被放置在了不太显眼的位置，而且整体布局没有很好地利用空间，使得用户难以快速获取关键信息。</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>查看 群 详细资料 用户界面 布局 显得 过于 冗杂 混乱 信息 展示 清晰 具体来说 群 成员 数量 群 简介 信息 放置 太 显眼 位置 整体 布局 没有 利用 空间 难以 快速 获取 关键 信息</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10010000008176</v>
+      </c>
+      <c r="B145" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="C145" t="n">
+        <v>2</v>
+      </c>
+      <c r="D145" t="n">
+        <v>5</v>
+      </c>
+      <c r="E145" t="inlineStr">
         <is>
           <t>在"我的所有群"的界面中，第一个群旁边显示的数字1可能表示该群是用户加入的第一个群组，或者有某种特定的标识或状态。然而，没有明确的上下文信息，这个数字1的实际意义并不明确。</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>" 群 " 界面 第一个 群 旁边 数字 表示 该群 加入 第一个 群组 某种 特定 标识 状态 没有 明确 上下文 信息 数字 实际意义 明确</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10010000009728</v>
+      </c>
+      <c r="B146" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="C146" t="n">
+        <v>3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>5</v>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>这个软件界面的“发起聊天”布局显得过于复杂，与直接的返回功能相比，增加了额外的功能按键。这可能导致用户在尝试进行简单操作时感到困惑或不便。</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>软件 界面 发起 聊天 布局 显得 过于 复杂 返回 相比 增加 额外 按键 进行 简单 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10010000009293</v>
+      </c>
+      <c r="B147" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="C147" t="n">
+        <v>3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>5</v>
+      </c>
+      <c r="E147" t="inlineStr">
         <is>
           <t>该应用的“关于我们”页面上的信息显示不完整，部分内容被截断或隐藏。</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>应用 页面 信息 完整 部分 内容 截断 隐藏</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10010000008098</v>
+      </c>
+      <c r="B148" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="C148" t="n">
+        <v>3</v>
+      </c>
+      <c r="D148" t="n">
+        <v>5</v>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>该应用程序中的“发起群聊”功能似乎存在重复和冲突问题。在朋友界面和群聊界面中，用户都可以使用相同的“发起群聊”功能，且这两个位置的功能表现完全一致。这种设计导致了功能的冗余，可能给使用者带来混淆或不便，建议开发者考虑优化此功能，以提供更加简洁和高效的用户体验。</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>应用程序 发起 群聊 重复 冲突 朋友 界面 群聊 界面 相同 发起 群聊 两个 位置 表现 完全一致 设计 冗余 使用者 带来 混淆 不便 建议 开发者 考虑 优化 提供 更加 简洁 高效</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10010000007861</v>
+      </c>
+      <c r="B149" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="C149" t="n">
+        <v>3</v>
+      </c>
+      <c r="D149" t="n">
+        <v>5</v>
+      </c>
+      <c r="E149" t="inlineStr">
         <is>
           <t>进入朋友页面，点击右上角更多，选择发起群聊。应用的这个发起群聊功能布局不好，隐藏太深，不方便用户找</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>进入 朋友 页面 点击 右上角 更 选择 发起 群聊 应用 发起 群聊 布局 不好 隐藏 太深 方便 找</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10010000008012</v>
+      </c>
+      <c r="B150" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="C150" t="n">
+        <v>3</v>
+      </c>
+      <c r="D150" t="n">
+        <v>3</v>
+      </c>
+      <c r="E150" t="inlineStr">
         <is>
           <t>问题描述：在尝试创建群组时，系统没有按照预期显示“成功创建群”的提示信息。当用户添加不同的好友后，系统对提示信息的展示存在不一致的情况，有的情况下只出现一次提示，而有的情况下则出现了两次。这可能表明系统的提示逻辑存在问题，或者是在不同情况下系统处理创建群请求的方式不一致。</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>创建 群组 系统 没有 预期 成功 创建 群 提示信息 添加 不同 好友 系统对 提示信息 展示 一致 情况 情况 出现 一次 提示 情况 下则 出现 两次 表明 系统 提示 逻辑 不同 情况 系统 处理 创建 群 请求 方式 一致</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10010000008026</v>
+      </c>
+      <c r="B151" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
+      <c r="C151" t="n">
+        <v>3</v>
+      </c>
+      <c r="D151" t="n">
+        <v>5</v>
+      </c>
+      <c r="E151" t="inlineStr">
         <is>
           <t>进入群组页面时，最顶部的两个功能图标（“放大镜”和另一个未明确标示的图标B）在视觉上被设计为可以点击或操作。然而，在实际的操作流程中，这些图标的功能受到了阻碍。当用户进入主要步骤的第二步时，搜索框的位置遮挡了B图标，导致用户无法直接与其交互。即使进入到第三步，搜索框仍然遮挡了B图标，使得该功能无法被激活或使用。这种设计上的冲突可能会对用户的体验造成不便，因为他们无法利用这些原本应该提供的功能。</t>
         </is>
       </c>
-      <c r="B151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>进入 群组 页面 顶部 两个 图标 放大镜 未 明确 标示 图标 B 视觉 设计 点击 图标 阻碍 进入 第二步 搜索 框 位置 遮挡 B 图标 无法 交互 进入 第三步 搜索 框 仍然 遮挡 B 图标 无法 激活 设计 冲突 造成 不便 无法 利用 原本 应该 提供</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10010000007955</v>
+      </c>
+      <c r="B152" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
+      <c r="C152" t="n">
+        <v>3</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1</v>
+      </c>
+      <c r="E152" t="inlineStr">
         <is>
           <t>这个软件的注册登录界面设计存在明显的用户友好性问题。在成功登录后，用户没有直接明显的退出功能，这可能会导致用户误操作或难以找到退出账号的选项。特别是在最后一张截图中，账号切换功能被隐藏得非常深，需要用户花费额外的时间去查找，这无疑增加了用户的使用难度和不便，严重影响了用户体验。</t>
         </is>
       </c>
-      <c r="B152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>软件 注册 登录 界面设计 明显 友好 性 成功 登录 没有 明显 退出 误操作 难以 找到 退出 账号 选项 特别 最后 一张 截图 账号 切换 隐藏 非常 深 花费 额外 时间 查找 无疑 增加 难度 不便 严重</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10010000008469</v>
+      </c>
+      <c r="B153" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
+      <c r="C153" t="n">
+        <v>3</v>
+      </c>
+      <c r="D153" t="n">
+        <v>5</v>
+      </c>
+      <c r="E153" t="inlineStr">
         <is>
           <t>该软件在执行查找群的入口功能时，出现了性能问题。用户在输入关键词后，系统没有立即给出反应，而是等待了一分钟。这一分钟内，用户界面没有任何更新或提示，导致用户误以为手机死机。这种情况可能会引起用户的不满和困惑，影响用户体验。</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>执行 查找 群 入口 出现 性能 输入 关键词 系统 没有 立即 给出 反应 等待 一分钟 一分钟 用户界面 没有 更新 提示 误以为 手机 死机 情况 引起 不满 困惑</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10010000008094</v>
+      </c>
+      <c r="B154" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="C154" t="n">
+        <v>3</v>
+      </c>
+      <c r="D154" t="n">
+        <v>5</v>
+      </c>
+      <c r="E154" t="inlineStr">
         <is>
           <t>在群简介的展示中，数字与汉字加载时出现了显示错误，导致部分屏幕位置为空白。虽然这些空白区域不计入字符数，但它们确实影响了用户界面的整体观感和用户体验。</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>群 简介 展示 数字 汉字 加载 出现 错误 部分 屏幕 位置 空白 空白 区域 计入 字符 数 确实 用户界面 整体 观感</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10010000009451</v>
+      </c>
+      <c r="B155" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
+      <c r="C155" t="n">
+        <v>3</v>
+      </c>
+      <c r="D155" t="n">
+        <v>3</v>
+      </c>
+      <c r="E155" t="inlineStr">
         <is>
           <t>在低分辨率的显示屏上，产品说明中的红色文字显示存在布局偏移问题。这种偏移使得原本应该对齐的文字和界面元素发生了错位，影响了用户界面的整体美观性和易读性。特别是在小屏幕或像素较低的设备上，这种偏移问题更为明显。</t>
         </is>
       </c>
-      <c r="B155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>低分辨率 显示屏 产品 说明 红色 文字 布局 偏移 偏移 原本 应该 对齐 文字 界面 元素 发生 错位 用户界面 整体 美观 性 易读性 特别 屏幕 像素 低 设备 偏移 更为 明显</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10010000009712</v>
+      </c>
+      <c r="B156" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
+      <c r="C156" t="n">
+        <v>2</v>
+      </c>
+      <c r="D156" t="n">
+        <v>5</v>
+      </c>
+      <c r="E156" t="inlineStr">
         <is>
           <t>在搜索群聊时，输入法的界面中显示了用户已经加入的群聊，但它们被输入法的背景遮挡，导致用户难以识别和选择。</t>
         </is>
       </c>
-      <c r="B156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>搜索 群聊 输入法 界面 加入 群聊 输入法 背景 遮挡 难以 识别 选择</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10010000009605</v>
+      </c>
+      <c r="B157" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="C157" t="n">
+        <v>2</v>
+      </c>
+      <c r="D157" t="n">
+        <v>5</v>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>该应用程序的用户界面存在颜色对比度问题，页面的整体白色调使得按钮和关键元素难以辨识。这可能导致用户在导航或执行任务时遇到困难，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>应用程序 用户界面 颜色 对比度 页面 整体 白色 调 按钮 关键 元素 难以 辨识 导航 执行 任务 遇到困难</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10010000008107</v>
+      </c>
+      <c r="B158" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
+      <c r="C158" t="n">
+        <v>3</v>
+      </c>
+      <c r="D158" t="n">
+        <v>5</v>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>在申请添加好友的填写验证消息的对话框中，边框的阴影部分的背景是白色的而非预期的透明。这使得阴影部分与对话框的其他部分在视觉上产生了不协调，影响了用户界面的整体美观和用户体验。</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>申请 添加 好友 填写 验证 消息 对话框 边框 阴影 部分 背景 白色 非 预期 透明 阴影 部分 对话框 部分 视觉 产生 协调 用户界面 整体 美观</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10010000008175</v>
+      </c>
+      <c r="B159" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
+      <c r="C159" t="n">
+        <v>5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>5</v>
+      </c>
+      <c r="E159" t="inlineStr">
         <is>
           <t>1、成功登陆，进入主页面
 2、底部导航栏出现BUG</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>成功 登陆 进入 主 页面 
  底部 导航 栏 出现 BUG</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10010000008559</v>
+      </c>
+      <c r="B160" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="C160" t="n">
+        <v>4</v>
+      </c>
+      <c r="D160" t="n">
+        <v>5</v>
+      </c>
+      <c r="E160" t="inlineStr">
         <is>
           <t>该软件在用户举报后未给出明确原因的情况下即成功执行了举报动作，这可能导致用户对举报过程和结果产生误解或困惑，从而引发一系列问题。</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>举报 未 给出 明确 原因 情况 下即 成功 执行 举报 动作 举报 过程 产生误解 困惑 引发 一系列</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>10010000008543</v>
+      </c>
+      <c r="B161" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
+      <c r="C161" t="n">
+        <v>5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>5</v>
+      </c>
+      <c r="E161" t="inlineStr">
         <is>
           <t>无确定是否举报，无举报具体内容，对举报内容无法分类</t>
         </is>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>确定 是否 举报 举报 具体内容 举报 内容 无法 分类</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10010000008480</v>
+      </c>
+      <c r="B162" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
+      <c r="C162" t="n">
+        <v>3</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5</v>
+      </c>
+      <c r="E162" t="inlineStr">
         <is>
           <t>该软件界面在填写群信息后，当用户尝试修改群信息时，页面的指示不够明确。具体来说，没有清晰的指示或按钮来引导用户如何进行信息的修改。这可能会导致用户在尝试更新群信息时感到困惑或无法成功完成操作。</t>
         </is>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>界面 填写 群 信息 修改 群 信息 页面 指示 不够 明确 具体来说 没有 清晰 指示 按钮 引导 进行 信息 修改 更新 群 信息 感到 困惑 无法 成功 完成</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10010000008483</v>
+      </c>
+      <c r="B163" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>5</v>
+      </c>
+      <c r="E163" t="inlineStr">
         <is>
           <t>这个bug是在群聊名称输入时，用户可以使用回车键来破坏布局。具体表现为，当用户在输入框中按下回车键时，会导致输入框内的布局被重置，且可以连续不断地使用回车键来重复此效果。这种设计显然是不符合常规的输入习惯和预期的用户交互体验。</t>
         </is>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>群聊 名称 输入 回车键 破坏 布局 具体表现 输入框 回车键 输入框 布局 重置 连续不断 回车键 重复 效果 设计 显然 符合 常规 输入 习惯 预期 交互</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>10010000008555</v>
+      </c>
+      <c r="B164" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
+      <c r="C164" t="n">
+        <v>2</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1</v>
+      </c>
+      <c r="E164" t="inlineStr">
         <is>
           <t>查找群图标不是一个输入框而是点击图标之后才会进入输入界面，给用户错觉</t>
         </is>
       </c>
-      <c r="B164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>查找 群 图标 输入框 点击 图标 之后 进入 输入 界面 错觉</t>
         </is>
       </c>
-      <c r="C164" t="inlineStr">
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10010000008432</v>
+      </c>
+      <c r="B165" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
+      <c r="C165" t="n">
+        <v>2</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5</v>
+      </c>
+      <c r="E165" t="inlineStr">
         <is>
           <t>该软件界面布局不引人注目，不能第一时间吸引人，望改进</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>界面 布局 引人注目 不能 第一 时间 吸引 改进</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10010000008633</v>
+      </c>
+      <c r="B166" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
+      <c r="C166" t="n">
+        <v>4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>5</v>
+      </c>
+      <c r="E166" t="inlineStr">
         <is>
           <t>问题描述：在历史消息的界面中，右上角有两个放大镜图标用于搜索。这两个图标之间的布局显得混乱和不协调，因为它们被放置在了同一个位置，这可能会给用户带来混淆和不便。</t>
         </is>
       </c>
-      <c r="B166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>历史 消息 界面 右上角 两个 放大镜 图标 用于 搜索 两个 图标 之间 布局 显得 混乱 协调 放置 同一个 位置 带来 混淆 不便</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10010000009775</v>
+      </c>
+      <c r="B167" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1</v>
+      </c>
+      <c r="E167" t="inlineStr">
         <is>
           <t>该软件界面中，在群聊天的右上角，加入群的功能被放置在了较为隐蔽的位置，导致用户可能难以找到搜索群的功能。</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>界面 群 聊天 右上角 加入 群 放置 较为 隐蔽 位置 难以 找到 搜索 群</t>
         </is>
       </c>
-      <c r="C167" t="inlineStr">
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>10010000008692</v>
+      </c>
+      <c r="B168" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
+      <c r="C168" t="n">
+        <v>2</v>
+      </c>
+      <c r="D168" t="n">
+        <v>5</v>
+      </c>
+      <c r="E168" t="inlineStr">
         <is>
           <t>聊天历史记录界面布局不合理，界面不美观。</t>
         </is>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>聊天 历史记录 界面 布局 不合理 界面 不美观</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10010000010019</v>
+      </c>
+      <c r="B169" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="C169" t="n">
+        <v>3</v>
+      </c>
+      <c r="D169" t="n">
+        <v>4</v>
+      </c>
+      <c r="E169" t="inlineStr">
         <is>
           <t>在搜索群时，用户无法准确区分哪些群是自己已经加入的。这种设计使得用户在查找已加入的群时感到困惑和不便，因为系统没有提供明确的指示来确定哪个群是他们已经加入的，这降低了用户体验的质量。</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>搜索 群时 无法 准确 区分 群是 加入 设计 查找 加入 群时 感到 困惑 不便 系统 没有 提供 明确 指示 确定 群是 加入 降低 质量</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>10010000009250</v>
+      </c>
+      <c r="B170" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="n">
+        <v>5</v>
+      </c>
+      <c r="E170" t="inlineStr">
         <is>
           <t>聊天主界面有查找功能可以，只有查找好友的，没有查找群的功能</t>
         </is>
       </c>
-      <c r="B170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>聊天 主 界面 查找 查找 好友 没有 查找 群</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10010000009241</v>
+      </c>
+      <c r="B171" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
+      <c r="C171" t="n">
+        <v>4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>5</v>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>在群信息显示中，当前展示的信息格式与描述不符。具体地，对于“不允许任何人加入群”这一选项，其相关信息没有明确展示出来，导致用户难以识别该群组的具体加入规则。</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>群 信息 当前 展示 信息格式 不符 具体 允许 任何人 加入 群 这一 选项 相关 信息 没有 明确 展示 难以 识别 群组 具体 加入 规则</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>10010000009064</v>
+      </c>
+      <c r="B172" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
+      <c r="C172" t="n">
+        <v>3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>5</v>
+      </c>
+      <c r="E172" t="inlineStr">
         <is>
           <t>在搜索按钮的点击后，页面布局出现了不协调的情况。原本整齐的元素现在看起来混乱，导致整体视觉效果不佳。</t>
         </is>
       </c>
-      <c r="B172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>搜索 按钮 点击 页面 布局 出现 协调 情况 原本 整齐 元素 现在 看起来 混乱 整体 视觉效果 不佳</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>10010000009261</v>
+      </c>
+      <c r="B173" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
+      <c r="C173" t="n">
+        <v>3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>5</v>
+      </c>
+      <c r="E173" t="inlineStr">
         <is>
           <t>在提供的图像中，页面的配色方案以白色和灰色为主。搜索、删除和添加按钮的颜色与背景颜色非常接近，都是白色和浅灰色。这种低对比度的配色使得用户在试图找到并点击这些按钮时可能会感到困难，因为按钮与背景融为一体，不易被立即识别。这可能导致用户在操作时花费更多的时间，从而降低了整体的使用体验。</t>
         </is>
       </c>
-      <c r="B173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>提供 页面 配色 方案 白色 灰色 为主 搜索 删除 添加 按钮 颜色 背景 颜色 非常 接近 白色 浅 灰色 低 对比度 配色 试图 找到 点击 按钮 感到 困难 按钮 背景 融为一体 不易 立即 识别 花费 更 时间 降低 整体</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>10010000009535</v>
+      </c>
+      <c r="B174" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
+      <c r="C174" t="n">
+        <v>3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>5</v>
+      </c>
+      <c r="E174" t="inlineStr">
         <is>
           <t>在查找群的页面中，布局存在明显的不协调。当用户点击“热门群推荐”时，系统会跳转到一个新页面供用户选择热门群。但是，这个新页面与其他部分的内容布局并不匹配。特别是，其他内容区域的布局似乎并没有根据新页面的设计进行相应的调整或重新布局，导致整体界面看起来混乱且不统一。</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>查找 群 页面 布局 明显 协调 点击 热门 群 推荐 系统 跳转 新页面 供 选择 热门 群 新页面 部分 内容 布局 匹配 特别 内容 区域 布局 没有 新页面 设计 进行 相应 调整 重新 布局 整体 界面 看起来 混乱 统一</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>10010000009262</v>
+      </c>
+      <c r="B175" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1</v>
+      </c>
+      <c r="E175" t="inlineStr">
         <is>
           <t>该软件界面显示异常，页面刷新速度缓慢，且整体布局出现混乱。特别地，部分关键内容缺失，导致用户无法获取预期信息。</t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>界面显示 异常 页面 刷新 速度 缓慢 整体 布局 出现 混乱 特别 部分 关键 内容 缺失 无法 获取 预期 信息</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>10010000010014</v>
+      </c>
+      <c r="B176" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="C176" t="n">
+        <v>3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>3</v>
+      </c>
+      <c r="E176" t="inlineStr">
         <is>
           <t>该页面显示了错乱的布局和元素位置。</t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>页面 错乱 布局 元素 位置</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>10010000009830</v>
+      </c>
+      <c r="B177" t="inlineStr">
         <is>
           <t>页面布局缺陷</t>
         </is>
       </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="C177" t="n">
+        <v>3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>5</v>
+      </c>
+      <c r="E177" t="inlineStr">
         <is>
           <t>在聊天主页面的搜索按钮旁边，存在一个未实现任何功能的按钮。这个按钮没有对应的功能或描述，因此它不应该出现在用户界面上，这可能会误导用户并导致混淆。</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>聊天 主 页面 搜索 按钮 旁边 未 实现 按钮 按钮 没有 对应 应该 出现 用户界面 误导 混淆</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>页面布局缺陷</t>
-        </is>
-      </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="A178" t="n">
+        <v>10010000007611</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>用户体验</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>3</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="inlineStr">
         <is>
           <t>在进行安装时，已经下载好安装包，进行安装时，安装过程过长，需要耐心等待。</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>进行 安装 下载 安装包 进行 安装 安装 过程 过长 耐心 等待</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>10010000007613</v>
+      </c>
+      <c r="B179" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
+      <c r="C179" t="n">
+        <v>2</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="inlineStr">
         <is>
           <t>该软件在第三方登录功能上存在性能问题，表现为响应时间过长。当网络连接出现异常时，用户应该接收到相应的错误提示信息以便于识别和解决问题。然而，当前系统并未提供此类反馈，这可能导致用户在使用过程中感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>第三方 登录 性能 表现 响应 时间 过长 网络连接 出现异常 应该 接收 相应 错误 提示信息 识别 解决问题 当前 系统 并未 提供 此类 反馈 过程 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C179" t="inlineStr">
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>10010000007631</v>
+      </c>
+      <c r="B180" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="C180" t="n">
+        <v>3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>5</v>
+      </c>
+      <c r="E180" t="inlineStr">
         <is>
           <t>放大影视作品图片，点击关闭按钮，直接回到主页面，而不是返回至父级页面，且手机自带的返回功能也不能返回至父级页面，用户体验度不好。</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>放大 影视作品 图片 点击 关闭 按钮 回到 主 页面 返回 父级 页面 手机 自带 返回 不能 返回 父级 页面 度 不好</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>10010000007646</v>
+      </c>
+      <c r="B181" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="C181" t="n">
+        <v>5</v>
+      </c>
+      <c r="D181" t="n">
+        <v>5</v>
+      </c>
+      <c r="E181" t="inlineStr">
         <is>
           <t>阅读回复我的回帖信息后，再次进行页面刷新加载没有出现例如“没有新的回复我的回帖信息”等提示信息。</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>阅读 回复 回帖 信息 再次 进行 页面 刷新 加载 没有 出现 没有 新 回复 回帖 信息 提示信息</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>10010000008177</v>
+      </c>
+      <c r="B182" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="C182" t="n">
+        <v>4</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="inlineStr">
         <is>
           <t>群聊的号码无法复制，不能申请加入</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>群聊 号码 无法 复制 不能 申请加入</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>10010000007812</v>
+      </c>
+      <c r="B183" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="C183" t="n">
+        <v>3</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1</v>
+      </c>
+      <c r="E183" t="inlineStr">
         <is>
           <t>该应用程序在用户交互时显示出了反应迟钝的问题。例如，当用户尝试执行某个操作时，应用的响应时间过长，导致用户体验下降。这种延迟可能是由于服务器负载、网络连接问题或内部代码效率低下等原因造成的。</t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>应用程序 交互 出 反应迟钝 执行 应用 响应 时间 过长 下降 延迟 服务器 负载 网络连接 内部 代码 效率 低下 原因 造成</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>10010000009035</v>
+      </c>
+      <c r="B184" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="inlineStr">
         <is>
           <t>问题描述：
 当用户尝试加入一个允许任何人进的群聊A和另一个需要经验证才能进入的群聊B时，对于群聊A的请求被接受，而对群聊B的请求则被拒绝。接着，该用户又尝试申请加入另一个不允许其加入的群聊B。</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t xml:space="preserve">
  加入 允许 任何人 进 群聊 A 经验 证 进入 群聊 B 群聊 A 请求 接受 群聊 B 请求 拒绝 申请加入 允许 加入 群聊 B</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>10010000009307</v>
+      </c>
+      <c r="B185" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="inlineStr">
         <is>
           <t>1，创建允许被任何人加入的群”测试群二”
 2，创建需管理员验证的群”测试群一”
 3，创建不被允许加入的群”测试群三”</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>创建 允许 任何人 加入 群 群二 
  创建 需 管理员 验证 群 群一 
  创建 允许 加入 群 群三</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>10010000009853</v>
+      </c>
+      <c r="B186" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="C186" t="n">
+        <v>3</v>
+      </c>
+      <c r="D186" t="n">
+        <v>5</v>
+      </c>
+      <c r="E186" t="inlineStr">
         <is>
           <t>该界面顶部的显示信息不够明显，用户难以快速识别当前界面的功能和用途。这种设计可能导致用户误解，认为这些文字是导航或返回按钮的标识，而非描述当前界面的功能。</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>界面 顶部 显示信息 不够 明显 难以 快速 识别 当前 界面 用途 设计 误解 认为 文字 导航 返回 按钮 标识 非 当前 界面</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>10010000008419</v>
+      </c>
+      <c r="B187" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
+      <c r="C187" t="n">
+        <v>3</v>
+      </c>
+      <c r="D187" t="n">
+        <v>5</v>
+      </c>
+      <c r="E187" t="inlineStr">
         <is>
           <t>在群聊组中发送文件时，用户在选择存储位置后，如果误点击了返回键，系统并未将用户导航回至选择存储位置的上一层页面，而是直接返回到了选择存储位置的初始界面。</t>
         </is>
       </c>
-      <c r="B187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>群聊 组中 发送 文件 选择 存储 位置 误 点击 返回 键 系统 并未 导航 回至 选择 存储 位置 一层 页面 返回 选择 存储 位置 初始 界面</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>10010000009224</v>
+      </c>
+      <c r="B188" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="C188" t="n">
+        <v>3</v>
+      </c>
+      <c r="D188" t="n">
+        <v>5</v>
+      </c>
+      <c r="E188" t="inlineStr">
         <is>
           <t>该软件界面中的语音聊天按钮设计过于狭窄，导致用户在实际操作时难以准确点击。这种设计不符合用户的使用习惯和期望，可能会降低用户体验，从而影响软件的整体满意度。</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>界面 语音 聊天 按钮 设计 过于 狭窄 实际操作 难以 准确 点击 设计 符合 习惯 期望 降低 软件 整体 满意度</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>10010000009343</v>
+      </c>
+      <c r="B189" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="C189" t="n">
+        <v>2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>5</v>
+      </c>
+      <c r="E189" t="inlineStr">
         <is>
           <t>朋友界面和群组界面的发起私聊功能一样，可以删掉朋友界面-更多 发起私聊的功能。</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>朋友 界面 群组 界面 发起 私聊 删掉 朋友 界面 - 更   发起 私聊</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>10010000009561</v>
+      </c>
+      <c r="B190" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="C190" t="n">
+        <v>2</v>
+      </c>
+      <c r="D190" t="n">
+        <v>5</v>
+      </c>
+      <c r="E190" t="inlineStr">
         <is>
           <t>在群组页面中，布局显得过于简单且单调。页面缺乏视觉吸引力和多样性，使得用户界面显得不够专业和友好。</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>群组 页面 布局 显得 过于 简单 单调 页面 缺乏 视觉 吸引力 多样性 用户界面 显得 不够 专业 友好</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>10010000008006</v>
+      </c>
+      <c r="B191" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
+      <c r="C191" t="n">
+        <v>3</v>
+      </c>
+      <c r="D191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" t="inlineStr">
         <is>
           <t>当一台机器已经登录过JayMe时，再使用另外一台设备登录时就会出现提示“同一账号已在其他设备登录”。所造成的问题就是用户只能在一个设备登录，当之前的设备因为某些原因无法退出时，另外的设备将会无法登录。 可以选择登录验证。</t>
         </is>
       </c>
-      <c r="B191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>一台 机器 登录 JayMe 一台 设备 登录 出现 提示 同一 账号 设备 登录 造成 只能 设备 登录 之前 设备 原因 无法 退出 设备 将会 无法 登录   选择 登录 验证</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>10010000008891</v>
+      </c>
+      <c r="B192" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
+      <c r="C192" t="n">
+        <v>4</v>
+      </c>
+      <c r="D192" t="n">
+        <v>5</v>
+      </c>
+      <c r="E192" t="inlineStr">
         <is>
           <t>该涂鸦功能界面的交互设计存在明显的问题，具体表现为：用户在尝试选择单色时，发现无法通过单击直接替换颜色，而需要双击或点击后有确定按钮。这种设计给用户带来了极大的不便，尤其是对于习惯单击操作的用户来说，增加了不必要的操作步骤和认知负担。</t>
         </is>
       </c>
-      <c r="B192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>涂鸦 界面 交互 设计 明显 具体表现 选择 单色 发现 无法 单击 替换 颜色 双击 点击 确定 按钮 设计 带来 极大 不便 尤其 习惯 单击 增加 不必要 操作步骤 认知 负担</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>10010000009606</v>
+      </c>
+      <c r="B193" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
+      <c r="C193" t="n">
+        <v>3</v>
+      </c>
+      <c r="D193" t="n">
+        <v>5</v>
+      </c>
+      <c r="E193" t="inlineStr">
         <is>
           <t>该软件界面在群组创建设置中，对“允许任何人加入该群”的描述过于笼统和模糊，导致用户无法清晰理解具体的加群规则和限制。应明确指出用户在申请加入时需要满足的条件，例如是否需要管理员审批或是否需要通过验证。目前的描述方式可能会导致用户误解，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>界面 群组 创建 设置 允许 任何人 加入 该群 过于 笼统 模糊 无法 清晰 理解 具体 加群 规则 限制 应 明确指出 申请加入 满足 是否 管理员 审批 是否 验证 目前 方式 误解</t>
         </is>
       </c>
-      <c r="C193" t="inlineStr">
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>10010000009267</v>
+      </c>
+      <c r="B194" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="C194" t="n">
+        <v>3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="inlineStr">
         <is>
           <t>在聊天界面中，加入群聊的操作路径较长，用户需要先进入群聊详情页，然后进行搜索并申请加入。此设计使得加入群聊的操作不够直观和便捷。建议将“加入群聊”功能整合到主页面的“朋友”或“搜索”模块中，以提高用户体验。</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>聊天 界面 加入 群聊 路径 较长 先 进入 群聊 详情页 进行 搜索 申请加入 设计 加入 群聊 不够 直观 便捷 建议 加入 群聊 整合 主 页面 朋友 搜索 模块 提高</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>10010000009807</v>
+      </c>
+      <c r="B195" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="C195" t="n">
+        <v>2</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4</v>
+      </c>
+      <c r="E195" t="inlineStr">
         <is>
           <t>在软件界面中，布局显示异常，导致用户界面出现不必要的上下滑空间。这可能会影响用户的使用体验，使他们感到困惑或不舒服。</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>软件 界面 布局 异常 用户界面 出现 不必要 下滑 空间 感到 困惑 舒服</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>10010000008661</v>
+      </c>
+      <c r="B196" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
+      <c r="C196" t="n">
+        <v>4</v>
+      </c>
+      <c r="D196" t="n">
+        <v>5</v>
+      </c>
+      <c r="E196" t="inlineStr">
         <is>
           <t>该软件在用户点击“加入群”后，并未提供自动搜索功能或者热门群推荐功能。用户必须手动输入群的名称或群号，这可能导致用户体验不佳，增加了用户的使用难度。</t>
         </is>
       </c>
-      <c r="B196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>点击 加入 群 并未 提供 自动 搜索 热门 群 推荐 必须 手动 输入 群 名称 或群 号 不佳 增加 难度</t>
         </is>
       </c>
-      <c r="C196" t="inlineStr">
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>10010000008364</v>
+      </c>
+      <c r="B197" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
+      <c r="C197" t="n">
+        <v>3</v>
+      </c>
+      <c r="D197" t="n">
+        <v>5</v>
+      </c>
+      <c r="E197" t="inlineStr">
         <is>
           <t>在群详细资料页面，显示的信息过于简化，导致用户无法全面了解该群的具体属性和特点。</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>群 详细资料 页面 信息 过于 简化 无法 全面 了解 该群 具体 属性 特点</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>10010000007874</v>
+      </c>
+      <c r="B198" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
+      <c r="C198" t="n">
+        <v>5</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>JayMe软件安装过程比较长，用户体验不佳。</t>
         </is>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>JayMe 软件 安装 过程 比较 长 不佳</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>10010000008034</v>
+      </c>
+      <c r="B199" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
+      <c r="C199" t="n">
+        <v>2</v>
+      </c>
+      <c r="D199" t="n">
+        <v>5</v>
+      </c>
+      <c r="E199" t="inlineStr">
         <is>
           <t>在用户成功登录并尝试邀请他人加入群聊后，系统并未正确显示邀请信息。预期中应显示“你已经邀请成功”的提示，但实际显示的是用户的ID和被邀请人的ID，这可能会引起混淆，使用户无法明确是谁被邀请加入了群聊。此外，如果用户未更改其昵称，他们的ID将与其他人混淆，进一步增加了识别的难度。</t>
         </is>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>成功 登录 邀请 加入 群聊 系统 并未 正确 邀请 信息 预期 中应 邀请 成功 提示 ID 邀请 ID 引起 混淆 无法 明确 邀请 加入 群聊 未 更改 昵称 ID 其他人 混淆 进一步 增加 识别 难度</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>10010000007923</v>
+      </c>
+      <c r="B200" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
+      <c r="C200" t="n">
+        <v>2</v>
+      </c>
+      <c r="D200" t="n">
+        <v>5</v>
+      </c>
+      <c r="E200" t="inlineStr">
         <is>
           <t>在成功登录后，当网络连接被断开时，尝试搜索已存在的群组，系统并未提供任何关于网络连接中断的提示。</t>
         </is>
       </c>
-      <c r="B200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>成功 登录 网络连接 断开 搜索 群组 系统 并未 提供 网络连接 中断 提示</t>
         </is>
       </c>
-      <c r="C200" t="inlineStr">
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>10010000008789</v>
+      </c>
+      <c r="B201" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
+      <c r="C201" t="n">
+        <v>3</v>
+      </c>
+      <c r="D201" t="n">
+        <v>5</v>
+      </c>
+      <c r="E201" t="inlineStr">
         <is>
           <t>该应用的群资料界面存在显示问题。在查看群资料时，用户无法看到任何关于群的介绍或简介信息，同时群人数信息也未显示，只简单地显示为“3人”。这种设计导致用户无法获取完整的群信息，也无法知道是否有其他成员加入该群组。</t>
         </is>
       </c>
-      <c r="B201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>应用 群 资料 界面 查看 群 资料 无法 看到 群 介绍 简介 信息 群 人数 信息 未 简单 设计 无法 获取 完整 群 信息 无法 知道 是否 成员 加入 群组</t>
         </is>
       </c>
-      <c r="C201" t="inlineStr">
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>10010000008926</v>
+      </c>
+      <c r="B202" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
+      <c r="C202" t="n">
+        <v>3</v>
+      </c>
+      <c r="D202" t="n">
+        <v>5</v>
+      </c>
+      <c r="E202" t="inlineStr">
         <is>
           <t>该软件界面在用户点击允许所有人加入的群聊的“加入群聊”按钮后，没有任何反应。无论尝试多少次点击，都未能触发加群的动作，而系统的消息提醒却显示用户已经加入了这个群聊。当用户返回并再次点击该群聊时，下方的“开始聊天”按钮已经变为可点击状态，表示用户已成功加入该群聊。然而，对于这种无需验证即可加入的群聊，在用户点击“加入群聊”后，系统并未弹出相应的已加入群聊的提示信息，导致用户体验上的困惑和不便。</t>
         </is>
       </c>
-      <c r="B202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>界面 点击 允许 所有人 加入 群聊 加入 群聊 按钮 没有 反应 次 点击 未能 触发 加群 动作 系统 消息 提醒 加入 群聊 返回 再次 点击 群聊 下方 聊天 按钮 变为 点击 状态 表示 成功 加入 群聊 无需 验证 即可 加入 群聊 点击 加入 群聊 系统 并未 弹 出 相应 加入 群聊 提示信息 困惑 不便</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>10010000008135</v>
+      </c>
+      <c r="B203" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="C203" t="n">
+        <v>4</v>
+      </c>
+      <c r="D203" t="n">
+        <v>5</v>
+      </c>
+      <c r="E203" t="inlineStr">
         <is>
           <t>非好友也可聊天，并且不可拉名单或者阻止信息等，这将造成可能受到骚扰但是没办法拒绝。</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>非 好友 聊天 不可 拉 名单 阻止 信息 造成 骚扰 没 办法 拒绝</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>10010000008674</v>
+      </c>
+      <c r="B204" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="C204" t="n">
+        <v>3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>5</v>
+      </c>
+      <c r="E204" t="inlineStr">
         <is>
           <t>在建立需要验证的群聊后，当有新的成员尝试加入时，尽管点击了“允许”，但在界面上并没有出现任何提示信息来告知用户加群成功或失败。这可能导致新成员无法确认自己的加入状态，从而造成沟通和互动上的不便。</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>建立 验证 群聊 当有 新 成员 加入 点击 允许 界面 没有 出现 提示信息 告知 加群 成功 失败 新 成员 无法 确认 加入 状态 造成 沟通 互动 不便</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>10010000007938</v>
+      </c>
+      <c r="B205" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
+      <c r="C205" t="n">
+        <v>3</v>
+      </c>
+      <c r="D205" t="n">
+        <v>4</v>
+      </c>
+      <c r="E205" t="inlineStr">
         <is>
           <t>在红米Note手机上使用该应用时，当用户长按聊天输入框内的内容并点击分享按钮选择“JayMe”功能时，系统没有给出预期的提示信息。预期中应该有屏幕浮动提示显示“分享成功”，但实际结果中并没有这样的提示出现。此外，附件中展示了其他机型手机在使用相同的操作时的截图，可以作为参考对比。</t>
         </is>
       </c>
-      <c r="B205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>红米 Note 手机 应用 长 聊天 输入框 内容 点击 分享 按钮 选择 JayMe 系统 没有 给出 预期 提示信息 预期 应该 屏幕 浮动 提示 分享 成功 没有 提示 出现 附件 展示 机型 手机 相同 截图 参考</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>10010000007981</v>
+      </c>
+      <c r="B206" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="C206" t="n">
+        <v>2</v>
+      </c>
+      <c r="D206" t="n">
+        <v>5</v>
+      </c>
+      <c r="E206" t="inlineStr">
         <is>
           <t>在软件的聊天功能中，用户报告了一个关键的问题：当有人使用脏话时，系统无法有效地屏蔽关键字，导致群聊中出现不适当的内容。这种情况尤其在群聊人数较多时更为明显，由于大量的信息流动，屏蔽机制似乎失效了。这直接影响了用户体验，使得吵架或冲突变得更加频繁和严重，从而降低了聊天应用的整体质量。</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>软件 聊天 报告 关键 有人 脏话 系统 无法 有效 屏蔽 关键字 群聊 出现 适当 内容 情况 尤其 群聊 人数 较多时 更为 明显 大量 信息 流动 屏蔽 机制 失效 吵架 冲突 变得 更加 频繁 严重 降低 聊天 应用 整体 质量</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>10010000008413</v>
+      </c>
+      <c r="B207" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="C207" t="n">
+        <v>3</v>
+      </c>
+      <c r="D207" t="n">
+        <v>4</v>
+      </c>
+      <c r="E207" t="inlineStr">
         <is>
           <t>该软件的历史记录界面与聊天界面在风格上存在差异，导致用户体验不一致。</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>历史记录 界面 聊天 界面 风格 差异 一致</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>10010000008693</v>
+      </c>
+      <c r="B208" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="C208" t="n">
+        <v>3</v>
+      </c>
+      <c r="D208" t="n">
+        <v>4</v>
+      </c>
+      <c r="E208" t="inlineStr">
         <is>
           <t>该软件在用户浏览历史记录时存在两个关键问题。首先，当用户试图向下滚动很长的距离时，右侧的滚动条不可见，这可能导致用户无法准确判断他们已经滚动到了什么地方，从而影响他们的使用体验。其次，软件缺少一个一键回到顶部的功能，这使得用户在需要快速返回页面顶部时无法实现，这可能会降低用户的满意度并导致他们在使用软件时感到不便。</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>浏览 历史记录 两个 关键问题 试图 向下 滚动 很长 距离 右侧 滚动条 无法 准确 判断 滚动 地方 软件 缺少 一键 回到 顶部 快速 返回 页面 顶部 无法 实现 降低 满意度 软件 感到 不便</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>10010000008962</v>
+      </c>
+      <c r="B209" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="C209" t="n">
+        <v>3</v>
+      </c>
+      <c r="D209" t="n">
+        <v>4</v>
+      </c>
+      <c r="E209" t="inlineStr">
         <is>
           <t>聊天窗口里使用手写功能，点击清空时，没有第二次的确认。但是撤回的时候会有提醒。</t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>聊天 窗口 里 手写 点击 清空 没有 第二次 确认 撤回 提醒</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>10010000009113</v>
+      </c>
+      <c r="B210" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="C210" t="n">
+        <v>3</v>
+      </c>
+      <c r="D210" t="n">
+        <v>5</v>
+      </c>
+      <c r="E210" t="inlineStr">
         <is>
           <t>该软件中，在“个人设置”下的“通用设置”中调整字体大小时，仅在聊天界面的右下角显示了调整后的字体大小效果。然而，关于这个功能的具体描述并不明确，用户可能无法准确理解这一变化是如何影响整个应用或仅仅是特定部分的。</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>个人 设置 通用 设置 调整 字体大小 仅 聊天 界面 右下角 调整 字体大小 效果 具体 明确 无法 准确 理解 这一 变化 整个 应用 仅仅 特定 部分</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>10010000009384</v>
+      </c>
+      <c r="B211" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="C211" t="n">
+        <v>4</v>
+      </c>
+      <c r="D211" t="n">
+        <v>4</v>
+      </c>
+      <c r="E211" t="inlineStr">
         <is>
           <t>该软件界面在搜索历史信息时，出现了两个放大镜图标。这可能表明用户可以点击这两个图标来执行某种功能，但目前看起来这两个功能并未被激活或显示其具体用途。</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>界面 搜索 历史 信息 出现 两个 放大镜 图标 表明 点击 两个 图标 执行 某种 目前 看起来 两个 并未 激活 具体 用途</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>10010000009481</v>
+      </c>
+      <c r="B212" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="C212" t="n">
+        <v>4</v>
+      </c>
+      <c r="D212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E212" t="inlineStr">
         <is>
           <t>在创建的时候开头可以加空格，但是进入群后，修改的时候开头的空格就消失了。</t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>创建 开头 加 空格 进入 群后 修改 开头 空格 消失</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>10010000009071</v>
+      </c>
+      <c r="B213" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="C213" t="n">
+        <v>4</v>
+      </c>
+      <c r="D213" t="n">
+        <v>5</v>
+      </c>
+      <c r="E213" t="inlineStr">
         <is>
           <t>该软件存在一个严重的漏洞，允许用户或陌生人直接被拉入群聊中，即使用户设置了拒绝陌生人请求。此外，用户的黑名单设置似乎并未起到应有的作用，因为即使用户将某人加入黑名单，对方仍然可以不受限制地将用户拉入群聊。这一设计缺陷可能会导致用户的隐私和信息安全受到威胁，特别是当这些群聊包含敏感或私人信息时。</t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>严重 漏洞 允许 陌生人 被拉入 群聊 设置 拒绝 陌生人 请求 黑名单 设置 并未 起到 应有 作用 某人 加入 黑名单 仍然 受限制 拉 入 群聊 这一 设计 缺陷 隐私 信息安全 威胁 特别 群聊 包含 敏感 私人 信息</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>10010000009302</v>
+      </c>
+      <c r="B214" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="C214" t="n">
+        <v>2</v>
+      </c>
+      <c r="D214" t="n">
+        <v>2</v>
+      </c>
+      <c r="E214" t="inlineStr">
         <is>
           <t>该软件界面显示了两个用户的聊天记录，其中一个用户ID已更改。然而，在当前界面上，我们只能看到旧的ID，而进入详细资料后，显示的是新的ID。这导致了信息的不一致和混淆，可能会误导用户关于好友的最新状态或信息。</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>界面显示 两个 聊天记录 ID 更改 当前 界面 只能 看到 旧 ID 进入 详细资料 新 ID 信息 一致 混淆 误导 好友 最新 状态 信息</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>10010000009238</v>
+      </c>
+      <c r="B215" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="C215" t="n">
+        <v>3</v>
+      </c>
+      <c r="D215" t="n">
+        <v>5</v>
+      </c>
+      <c r="E215" t="inlineStr">
         <is>
           <t>进入群聊界面后，点击右上角的小图标进行操作时，群共享功能在应用中的界面设计并不友好。用户在尝试使用该功能时可能会感到困惑或不便于操作，这可能会影响用户的使用体验。</t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>进入 群聊 界面 点击 右上角 小图标 进行 群 共享 应用 界面设计 友好 感到 困惑</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>10010000009607</v>
+      </c>
+      <c r="B216" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="C216" t="n">
+        <v>3</v>
+      </c>
+      <c r="D216" t="n">
+        <v>5</v>
+      </c>
+      <c r="E216" t="inlineStr">
         <is>
           <t>一个人无法发起群聊，即无法建群。但是却可以存在一个人的群。</t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>无法 发起 群聊 无法 建群 群</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>10010000009918</v>
+      </c>
+      <c r="B217" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
+      <c r="C217" t="n">
+        <v>2</v>
+      </c>
+      <c r="D217" t="n">
+        <v>5</v>
+      </c>
+      <c r="E217" t="inlineStr">
         <is>
           <t>在这张图片中，我们可以看到一个手机屏幕截图显示了一个群聊列表。每个群聊的名称都是相同的“哈哈哈哈哈哈”，这可能导致用户难以区分他们加入的是哪个具体的群聊。这种重复和缺乏区分度的设计可能会导致用户的混淆和不便。</t>
         </is>
       </c>
-      <c r="B217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>图片 看到 手机 屏幕 截图 群聊 列表 每个 群聊 名称 相同 哈哈哈 哈哈哈 难以 区分 加入 具体 群聊 重复 缺乏 区分度 设计 混淆 不便</t>
         </is>
       </c>
-      <c r="C217" t="inlineStr">
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>10010000007941</v>
+      </c>
+      <c r="B218" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
+      <c r="C218" t="n">
+        <v>3</v>
+      </c>
+      <c r="D218" t="n">
+        <v>4</v>
+      </c>
+      <c r="E218" t="inlineStr">
         <is>
           <t>该问题描述了一个闪屏的bug，当用户点击网页链接时，屏幕会闪烁。这可能是由于网页加载过程中的某种显示问题导致的，具体的原因需要通过进一步的分析和测试来确定。</t>
         </is>
       </c>
-      <c r="B218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>闪屏 点击 网页 链接 屏幕 闪烁 网页 加载 过程 某种 具体 原因 进一步 分析 确定</t>
         </is>
       </c>
-      <c r="C218" t="inlineStr">
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>10010000008123</v>
+      </c>
+      <c r="B219" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
+      <c r="C219" t="n">
+        <v>4</v>
+      </c>
+      <c r="D219" t="n">
+        <v>4</v>
+      </c>
+      <c r="E219" t="inlineStr">
         <is>
           <t>调色板上的色盘显示异常，无法正常显示和选择颜色。</t>
         </is>
       </c>
-      <c r="B219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>调色板 色盘 异常 无法 正常 选择 颜色</t>
         </is>
       </c>
-      <c r="C219" t="inlineStr">
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>10010000009540</v>
+      </c>
+      <c r="B220" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="C220" t="n">
+        <v>3</v>
+      </c>
+      <c r="D220" t="n">
+        <v>5</v>
+      </c>
+      <c r="E220" t="inlineStr">
         <is>
           <t>该软件界面中，新用户在尝试创建群聊时遇到了一个明显的用户体验问题。整个页面显示为空白，没有提供任何关于下一步操作的提示或指导。这可能会让用户感到困惑，不知道他们应该进行哪些操作以完成群聊的创建。此外，这种设计可能会导致用户认为他们的操作未被系统识别，从而产生挫败感。这种情况需要开发者关注并优化，以确保新用户能够顺利地使用该功能，同时提供必要的指导和反馈信息。</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>界面 新 创建 群聊 遇到 明显 整个 页面 空白 没有 提供 一步 提示 指导 感到 困惑 知道 应该 进行 完成 群聊 创建 设计 认为 未 系统 识别 产生 挫败 感 情况 开发者 关注 优化 确保 新 能够 顺利 提供 必要 指导 反馈 信息</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>10010000009098</v>
+      </c>
+      <c r="B221" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="C221" t="n">
+        <v>3</v>
+      </c>
+      <c r="D221" t="n">
+        <v>5</v>
+      </c>
+      <c r="E221" t="inlineStr">
         <is>
           <t>加入群聊时，未加入的群聊权限为“允许任何人加入该群”，显示也是“加入群聊”，用户分不清哪个是已经加入过的，哪个是未加入的。</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>加入 群聊 未 加入 群聊 权限 允许 任何人 加入 该群 加入 群聊 分不清 加入 未 加入</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>10010000008255</v>
+      </c>
+      <c r="B222" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="C222" t="n">
+        <v>3</v>
+      </c>
+      <c r="D222" t="n">
+        <v>5</v>
+      </c>
+      <c r="E222" t="inlineStr">
         <is>
           <t>该软件在没有获得录音权限的情况下，错误地显示了"录音时间太短"的提示，而不是正确的"没有赋予录音权限"提示。</t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>没有 获得 录音 权限 情况 错误 " 录音 时间 太短 " 提示 正确 " 没有 赋予 录音 权限 " 提示</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>10010000008526</v>
+      </c>
+      <c r="B223" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
+      <c r="C223" t="n">
+        <v>4</v>
+      </c>
+      <c r="D223" t="n">
+        <v>5</v>
+      </c>
+      <c r="E223" t="inlineStr">
         <is>
           <t>在软件测试过程中，发现当用户清空群聊记录后退出到朋友界面时，之前选中的群聊选项会消失不见。这导致了用户无法快速访问和管理他们的群聊，可能会对他们使用该软件的体验造成不便。</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>软件测试 过程 发现 清空 群聊 记录 退出 朋友 界面 之前 选中 群聊 选项 消失 不见 无法 快速访问 管理 群聊 造成 不便</t>
         </is>
       </c>
-      <c r="C223" t="inlineStr">
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>10010000008874</v>
+      </c>
+      <c r="B224" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
+      <c r="C224" t="n">
+        <v>3</v>
+      </c>
+      <c r="D224" t="n">
+        <v>5</v>
+      </c>
+      <c r="E224" t="inlineStr">
         <is>
           <t>在软件界面中，群聊搜索功能存在缺陷。当用户尝试通过搜索“测试群聊”时，系统返回了四个完全相同名称的群聊结果，导致用户无法区分哪个是他们想要加入的。这种情况可能会造成用户的混淆和不便，尤其是当他们需要迅速找到并进入某个特定群聊进行交流时。</t>
         </is>
       </c>
-      <c r="B224" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>软件 界面 群聊 搜索 缺陷 搜索 群聊 系统 返回 四个 完全相同 名称 群聊 无法 区分 想要 加入 情况 造成 混淆 不便 尤其 迅速 找到 进入 特定 群聊 进行 交流</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>10010000009518</v>
+      </c>
+      <c r="B225" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
+      <c r="C225" t="n">
+        <v>4</v>
+      </c>
+      <c r="D225" t="n">
+        <v>5</v>
+      </c>
+      <c r="E225" t="inlineStr">
         <is>
           <t>如果想加入一个群，寻找“加入群”的入口对于一个刚上手的用户来说有一点的困难，通过群聊中其他测试人员的反应，不容易找到“加入群”的入口，</t>
         </is>
       </c>
-      <c r="B225" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>想 加入 群 寻找 加入 群 入口 刚上 手 一点 困难 群聊 测试人员 反应 容易 找到 加入 群 入口</t>
         </is>
       </c>
-      <c r="C225" t="inlineStr">
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>10010000008709</v>
+      </c>
+      <c r="B226" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="C226" t="n">
+        <v>3</v>
+      </c>
+      <c r="D226" t="n">
+        <v>5</v>
+      </c>
+      <c r="E226" t="inlineStr">
         <is>
           <t>在用户尝试加入一个已经加入的群时，系统并未提供直接进入群设置选项。当点击已加入的群时，仅有的可操作选项是“开始聊天”，而没有直接跳转到群设置的功能。这种设计导致用户无法进行必要的群管理或修改设置，给用户带来了不便，从而影响了整体的用户体验质量。</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>加入 加入 群时 系统 并未 提供 进入 群 设置 选项 点击 加入 群时 仅 选项 聊天 没有 跳转 群 设置 设计 无法 进行 必要 群 管理 修改 设置 带来 不便 整体 质量</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>10010000009698</v>
+      </c>
+      <c r="B227" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="C227" t="n">
+        <v>2</v>
+      </c>
+      <c r="D227" t="n">
+        <v>5</v>
+      </c>
+      <c r="E227" t="inlineStr">
         <is>
           <t>当没有加入群时，查看群，一片空白，没有提示</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>没有 加入 群时 查看 群 一片空白 没有 提示</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>10010000007998</v>
+      </c>
+      <c r="B228" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="C228" t="n">
+        <v>3</v>
+      </c>
+      <c r="D228" t="n">
+        <v>5</v>
+      </c>
+      <c r="E228" t="inlineStr">
         <is>
           <t>该界面在显示文件记录与聊天记录时存在缺陷。当用户期望看到这些记录，但实际没有时，界面并未提供适当的提示信息，而是简单地展示为空白区域。这可能导致用户感到困惑或不安，因为缺乏明确的反馈机制。</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>界面 显示文件 记录 聊天记录 缺陷 期望 看到 记录 没有 界面 并未 提供 适当 提示信息 简单 展示 空白 区域 感到 困惑 不安 缺乏 明确 反馈 机制</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>10010000008013</v>
+      </c>
+      <c r="B229" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
+      <c r="C229" t="n">
+        <v>4</v>
+      </c>
+      <c r="D229" t="n">
+        <v>5</v>
+      </c>
+      <c r="E229" t="inlineStr">
         <is>
           <t>有人邀请用户进去群聊时无拒绝进入群聊选项！使得用户不得不进入群聊</t>
         </is>
       </c>
-      <c r="B229" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>有人 邀请 进去 群聊 拒绝 进入 群聊 选项 不得不 进入 群聊</t>
         </is>
       </c>
-      <c r="C229" t="inlineStr">
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>10010000008438</v>
+      </c>
+      <c r="B230" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="C230" t="n">
+        <v>3</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1</v>
+      </c>
+      <c r="E230" t="inlineStr">
         <is>
           <t>这个bug描述如下：在群邀请进入的场景中，被邀请的人在没有明确同意的情况下，可以自动地直接进入该群。这违反了正常的用户交互流程和预期，可能导致用户感到困惑或不满。</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>群 邀请 进入 场景 邀请 没有 明确 同意 情况 自动 进入 该群 违反 正常 交互 预期 感到 困惑 不满</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>10010000008509</v>
+      </c>
+      <c r="B231" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="C231" t="n">
+        <v>4</v>
+      </c>
+      <c r="D231" t="n">
+        <v>5</v>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>在加入群聊的时候，正如图片上写的热门群推荐，但是却没有热门群的内容出现，这是一个bug.</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>加入 群聊 图片 写 热门 群 推荐 没有 热门 群 内容 出现 .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>10010000008001</v>
+      </c>
+      <c r="B232" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
+      <c r="C232" t="n">
+        <v>3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>5</v>
+      </c>
+      <c r="E232" t="inlineStr">
         <is>
           <t>该软件在用户输入换行符后，尝试打开浏览群简介时并未保存原有的换行符信息。当再次打开浏览时，换行符被重置或消失，导致原本的格式和布局被破坏。</t>
         </is>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>输入 换行符 打开 浏览 群 简介 并未 保存 原有 换行符 信息 再次 打开 浏览 换行符 重置 消失 原本 格式 布局 破坏</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>10010000008009</v>
+      </c>
+      <c r="B233" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="C233" t="n">
+        <v>5</v>
+      </c>
+      <c r="D233" t="n">
+        <v>5</v>
+      </c>
+      <c r="E233" t="inlineStr">
         <is>
           <t>别人邀请加入群聊时，没有拒绝选项，直接加入。用户没有主动权。</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>邀请 加入 群聊 没有 拒绝 选项 加入 没有 主动权</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>10010000008441</v>
+      </c>
+      <c r="B234" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="C234" t="n">
+        <v>5</v>
+      </c>
+      <c r="D234" t="n">
+        <v>5</v>
+      </c>
+      <c r="E234" t="inlineStr">
         <is>
           <t>在群聊界面中，当用户试图收藏表情并选择分享功能时，系统出现了异常。特别是，当用户选择分享到QQ时，应用程序的反应速度明显下降，导致手机出现卡顿现象。这种卡顿情况严重到需要用户关闭重新启动设备才能解决。此外，分享到微信好友、微博或其他选项的功能似乎也被限制了，只显示了分享到QQ的选项。</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>群聊 界面 试图 收藏 表情 选择 分享 系统 出现 异常 特别 选择 分享 QQ 应用程序 反应速度 明显 下降 手机 出现 卡顿 现象 卡顿 情况严重 关闭 重新启动 设备 解决 分享 微信 好友 微博 选项 限制 分享 QQ 选项</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>10010000009936</v>
+      </c>
+      <c r="B235" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="C235" t="n">
+        <v>5</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" t="inlineStr">
         <is>
           <t>进行群聊时，若对方正在输入信息，在群聊页面最上面没有“对方正在输入....”的提示，输入完毕大约10s，即可收到对方消息。</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>进行 群聊 正在 输入 信息 群聊 页面 上面 没有 正在 输入 .... 提示 输入 完毕 大约 10s 即可 收到 消息</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>10010000008134</v>
+      </c>
+      <c r="B236" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1</v>
+      </c>
+      <c r="E236" t="inlineStr">
         <is>
           <t>在用户试图加入群组时，发现入群的条件与之前设置的说明不符。这导致了用户的困惑和不满，因为他们可能认为这是一个错误或误导。这种情况可能会影响用户对应用的信任度和使用体验。</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>试图 加入 群组 发现 入群 之前 设置 说明 不符 困惑 不满 认为 错误 误导 情况 应用 信任度</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>10010000009051</v>
+      </c>
+      <c r="B237" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="C237" t="n">
+        <v>4</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5</v>
+      </c>
+      <c r="E237" t="inlineStr">
         <is>
           <t>由于APP内没有被加群的相关中设置，用户可以被任意用户拉进群聊，即使把对方拉入黑名单，对方也是有权拉人进群，可能会造成一些骚扰。</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>APP 没有 加群 相关 设置 任意 拉 进 群聊 拉 入 黑名单 有权 拉人 进群 造成 骚扰</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>10010000008708</v>
+      </c>
+      <c r="B238" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="C238" t="n">
+        <v>3</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5</v>
+      </c>
+      <c r="E238" t="inlineStr">
         <is>
           <t>问题描述：在手机网络断开的情况下，当用户尝试通过输入关键字“的”来搜索并加入群聊时，搜索结果界面没有显示任何与该关键字相关的群聊信息。此外，系统也没有给用户任何关于网络连接状态的提示或警告，导致用户可能会误认为不存在包含该关键字的群聊。这种情况会严重影响用户的使用体验，因为它可能导致用户感到困惑和挫败，不知道为何无法找到他们想要的信息。</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>手机 网络 断开 情况 输入 关键字 搜索 加入 群聊 搜索 界面 没有 关键字 相关 群聊 信息 系统 没有 网络连接 状态 提示 警告 误认为 包含 关键字 群聊 情况 严重 感到 困惑 挫败 知道 无法 找到 想要 信息</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>10010000008606</v>
+      </c>
+      <c r="B239" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
+      <c r="C239" t="n">
+        <v>3</v>
+      </c>
+      <c r="D239" t="n">
+        <v>3</v>
+      </c>
+      <c r="E239" t="inlineStr">
         <is>
           <t>当用第三方账号如QQ登录App时，转第三方账号确认授权登录的页面速度稍慢，影响用户体验。</t>
         </is>
       </c>
-      <c r="B239" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>第三方 账号 QQ 登录 App 转 第三方 账号 确认 授权 登录 页面 速度 稍慢</t>
         </is>
       </c>
-      <c r="C239" t="inlineStr">
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>10010000009154</v>
+      </c>
+      <c r="B240" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
+      <c r="C240" t="n">
+        <v>2</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5</v>
+      </c>
+      <c r="E240" t="inlineStr">
         <is>
           <t>被拉黑用户后还能拉用户进入群聊</t>
         </is>
       </c>
-      <c r="B240" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>拉 黑 拉 进入 群聊</t>
         </is>
       </c>
-      <c r="C240" t="inlineStr">
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>10010000009589</v>
+      </c>
+      <c r="B241" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="inlineStr">
+      <c r="C241" t="n">
+        <v>2</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="inlineStr">
         <is>
           <t>在软件测试报告中，这个bug描述为：当用户尝试根据名称查找群聊时，由于存在重名的群聊过多，导致无法精确地定位到特定的群聊。这可能会导致用户花费更多的时间来找到他们想要的群聊，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B241" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>软件测试 报告 名称 查找 群聊 重名 群聊 过多 无法 精确 定位 特定 群聊 花费 更 时间 找到 想要 群聊</t>
         </is>
       </c>
-      <c r="C241" t="inlineStr">
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>10010000009638</v>
+      </c>
+      <c r="B242" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="inlineStr">
+      <c r="C242" t="n">
+        <v>2</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1</v>
+      </c>
+      <c r="E242" t="inlineStr">
         <is>
           <t>该软件在用户尝试加入未加入的群聊时，操作流程复杂且不直观，导致用户体验不佳。查找功能似乎有限制，可能无法快速准确地找到用户想要加入的群聊。这些问题可能会影响用户的使用满意度和软件的整体效能。</t>
         </is>
       </c>
-      <c r="B242" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>加入 未 加入 群聊 复杂 直观 不佳 查找 限制 无法 快速 准确 找到 想要 加入 群聊 满意度 软件 整体 效能</t>
         </is>
       </c>
-      <c r="C242" t="inlineStr">
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>10010000008348</v>
+      </c>
+      <c r="B243" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="C243" t="n">
+        <v>3</v>
+      </c>
+      <c r="D243" t="n">
+        <v>5</v>
+      </c>
+      <c r="E243" t="inlineStr">
         <is>
           <t>在选择成员时,选中再取消用户的图标会闪烁</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>选择 成员 , 选中 取消 图标 闪烁</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>10010000008334</v>
+      </c>
+      <c r="B244" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="C244" t="n">
+        <v>3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5</v>
+      </c>
+      <c r="E244" t="inlineStr">
         <is>
           <t>在商城中购买东西的时候没有做到更好的分类，让人无从下手，感觉就是没有购买的欲望</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>商城 购买 东西 没有 做到 更好 分类 无从下手 感觉 没有 购买 欲望</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>10010000008699</v>
+      </c>
+      <c r="B245" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="245">
-      <c r="A245" t="inlineStr">
+      <c r="C245" t="n">
+        <v>2</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5</v>
+      </c>
+      <c r="E245" t="inlineStr">
         <is>
           <t>在软件界面中，当多个群聊具有相同名称时，用户可能会难以区分它们。为了提高用户体验，建议增加群聊的备注功能。这样，用户可以通过查看备注来快速识别不同的群聊。</t>
         </is>
       </c>
-      <c r="B245" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>软件 界面 多个 群聊 具有 相同 名称 难以 区分 提高 建议 增加 群聊 备注 查看 备注 快速 识别 不同 群聊</t>
         </is>
       </c>
-      <c r="C245" t="inlineStr">
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>10010000008208</v>
+      </c>
+      <c r="B246" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="inlineStr">
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1</v>
+      </c>
+      <c r="E246" t="inlineStr">
         <is>
           <t>该软件界面显示了一个群聊列表，其中用户正在搜索并试图加入一个已经加入的群。然而，这个已加入的群并未出现在搜索结果的第一位置，而是被其他群聊所替代，这可能导致用户在寻找特定群聊时感到困扰和不便。</t>
         </is>
       </c>
-      <c r="B246" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>界面显示 群聊 列表 正在 搜索 试图 加入 加入 群 加入 群 并未 出现 搜索 第一 位置 群聊 寻找 特定 群聊 感到 困扰 不便</t>
         </is>
       </c>
-      <c r="C246" t="inlineStr">
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>10010000008327</v>
+      </c>
+      <c r="B247" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
+      <c r="C247" t="n">
+        <v>5</v>
+      </c>
+      <c r="D247" t="n">
+        <v>4</v>
+      </c>
+      <c r="E247" t="inlineStr">
         <is>
           <t>客服无应答！长时间过后，依然无应答</t>
         </is>
       </c>
-      <c r="B247" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>客服 无应答 长时间 过后 依然 无应答</t>
         </is>
       </c>
-      <c r="C247" t="inlineStr">
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>10010000008390</v>
+      </c>
+      <c r="B248" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
+      <c r="C248" t="n">
+        <v>4</v>
+      </c>
+      <c r="D248" t="n">
+        <v>5</v>
+      </c>
+      <c r="E248" t="inlineStr">
         <is>
           <t>点击我的群组-更多-“加入群”，输入群名自动跳出所有符合筛选条件的群，但是没有对相应匹配度的群进行从匹配度高到匹配度低的排序，群排列顺序混乱。</t>
         </is>
       </c>
-      <c r="B248" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>点击 群组 - 更 - 加入 群 输入 群名 自动 跳出 符合 筛选 群 没有 相应 匹配 度 群 进行 匹配 度高到 匹配 度 低 排序 群 排列 顺序 混乱</t>
         </is>
       </c>
-      <c r="C248" t="inlineStr">
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>10010000009019</v>
+      </c>
+      <c r="B249" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
+      <c r="C249" t="n">
+        <v>3</v>
+      </c>
+      <c r="D249" t="n">
+        <v>4</v>
+      </c>
+      <c r="E249" t="inlineStr">
         <is>
           <t>当别人拉你进群的时候，不需要经过自己的同意就被直接拉进群了，这样很容易让推销的一些人随意拉进去，会影响用户的体验。</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>拉 进群 同意 拉 进群 容易 推销 随意 拉进去</t>
         </is>
       </c>
-      <c r="C249" t="inlineStr">
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>10010000008289</v>
+      </c>
+      <c r="B250" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
+      <c r="C250" t="n">
+        <v>3</v>
+      </c>
+      <c r="D250" t="n">
+        <v>5</v>
+      </c>
+      <c r="E250" t="inlineStr">
         <is>
           <t>在软件的添加好友功能中，当用户点击陌生人时，弹出了一个询问是否将该用户添加为好友的对话框。然而，对话框中的“同意”按钮被放置在了右侧，这可能会给用户带来不便。为了提高用户体验，建议将“同意”按钮的位置改为更中心或更易于点击的位置。</t>
         </is>
       </c>
-      <c r="B250" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>软件 添加 好友 点击 陌生人 弹出 询问 是否 添 加为好友 对话框 对话框 同意 按钮 放置 右侧 带来 不便 提高 建议 同意 按钮 位置 改为 更 中心 更 易于 点击 位置</t>
         </is>
       </c>
-      <c r="C250" t="inlineStr">
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>10010000008485</v>
+      </c>
+      <c r="B251" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="251">
-      <c r="A251" t="inlineStr">
+      <c r="C251" t="n">
+        <v>3</v>
+      </c>
+      <c r="D251" t="n">
+        <v>5</v>
+      </c>
+      <c r="E251" t="inlineStr">
         <is>
           <t>该软件中存在一个bug，即当用户尝试点击快捷回复信息右侧的按钮以进行修改或删除操作时，系统并未呈现出预期的操作选项，如“修改”或“删除”。相反，用户只能通过点击右上角的“铅笔”图标来删除快捷回复信息。这可能导致用户在尝试进行常规操作时感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B251" t="inlineStr">
+      <c r="F251" t="inlineStr">
         <is>
           <t>即当 点击 快捷 回复 信息 右侧 按钮 进行 修改 删除 系统 并未 呈现出 预期 选项 修改 删除 相反 只能 点击 右上角 铅笔 图标 删除 快捷 回复 信息 进行 常规 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C251" t="inlineStr">
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>10010000008974</v>
+      </c>
+      <c r="B252" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="252">
-      <c r="A252" t="inlineStr">
+      <c r="C252" t="n">
+        <v>3</v>
+      </c>
+      <c r="D252" t="n">
+        <v>5</v>
+      </c>
+      <c r="E252" t="inlineStr">
         <is>
           <t>该界面设计存在明显的问题，导致用户在尝试操作时可能会感到困惑。首先，弹出的请求框没有清晰的按钮标识，这可能会让用户误以为只是一段普通的文本信息，而不是可操作的选项。其次，界面的视觉设计不够吸引人，缺乏足够的美观度和用户友好性。这种设计可能会导致用户体验下降，从而影响用户对该应用的整体满意度。</t>
         </is>
       </c>
-      <c r="B252" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>界面设计 明显 感到 困惑 弹出 请求 框 没有 清晰 按钮 标识 误以为 一段 普通 文本 信息 选项 界面 视觉 设计 不够 吸引 缺乏 足够 美观 度 友好 性 设计 下降 应用 整体 满意度</t>
         </is>
       </c>
-      <c r="C252" t="inlineStr">
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>10010000009458</v>
+      </c>
+      <c r="B253" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="253">
-      <c r="A253" t="inlineStr">
+      <c r="C253" t="n">
+        <v>3</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1</v>
+      </c>
+      <c r="E253" t="inlineStr">
         <is>
           <t>该图像显示了一个群组的加入方式选择界面。在界面中，原本应显示“直接加入”和“申请加入”两种方式，但实际显示为“直接加入申请”和“申请加入”。这种表述方式虽然包含了所有可能的选项，但由于排列顺序和间距的问题，使得用户难以快速区分不同的加入方式，辨识度较低。</t>
         </is>
       </c>
-      <c r="B253" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>群组 加入 方式 选择 界面 界面 原本 应 加入 申请加入 两种 方式 加入 申请 申请加入 表述 方式 包含 选项 排列 顺序 间距 难以 快速 区分 不同 加入 方式 辨识 度 低</t>
         </is>
       </c>
-      <c r="C253" t="inlineStr">
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>10010000008373</v>
+      </c>
+      <c r="B254" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="254">
-      <c r="A254" t="inlineStr">
+      <c r="C254" t="n">
+        <v>3</v>
+      </c>
+      <c r="D254" t="n">
+        <v>5</v>
+      </c>
+      <c r="E254" t="inlineStr">
         <is>
           <t>这个软件的界面设计存在一个显示问题。在需要输入验证信息的群组加入过程中，用户应该能清晰地看到他们之前输入的信息，但在这个情况下，验证信息没有换行，导致用户无法清楚地看到自己之前输入的每一条信息。这可能会造成用户的困扰，因为他们不能确认自己是否已经完整地提供了所有需要的信息。</t>
         </is>
       </c>
-      <c r="B254" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>软件 界面设计 输入 验证 信息 群组 加入 过程 应该 清晰 看到 之前 输入 信息 情况 验证 信息 没有 换行 无法 清楚 看到 之前 输入 一条 信息 造成 困扰 不能 确认 是否 完整 提供 信息</t>
         </is>
       </c>
-      <c r="C254" t="inlineStr">
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>10010000009053</v>
+      </c>
+      <c r="B255" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="255">
-      <c r="A255" t="inlineStr">
+      <c r="C255" t="n">
+        <v>3</v>
+      </c>
+      <c r="D255" t="n">
+        <v>5</v>
+      </c>
+      <c r="E255" t="inlineStr">
         <is>
           <t>创建群名长度为65，应用没有提示。</t>
         </is>
       </c>
-      <c r="B255" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>创建 群名 长度 65 应用 没有 提示</t>
         </is>
       </c>
-      <c r="C255" t="inlineStr">
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>10010000008431</v>
+      </c>
+      <c r="B256" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="256">
-      <c r="A256" t="inlineStr">
+      <c r="C256" t="n">
+        <v>4</v>
+      </c>
+      <c r="D256" t="n">
+        <v>5</v>
+      </c>
+      <c r="E256" t="inlineStr">
         <is>
           <t>在这张图片中，我们看到一个界面，其设计相对简单和单一。功能按钮的数量有限，这可能导致用户无法访问他们可能需要的更多功能。这种设计可能限制了应用或系统的实用性和吸引力，尤其是对于那些期望更多交互和功能的用户来说。</t>
         </is>
       </c>
-      <c r="B256" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>图片 看到 界面 设计 相对 简单 单一 按钮 数量 有限 无法访问 更 多功能 设计 限制 应用 系统 实用性 吸引力 尤其 期望 更 交互</t>
         </is>
       </c>
-      <c r="C256" t="inlineStr">
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>10010000009207</v>
+      </c>
+      <c r="B257" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="257">
-      <c r="A257" t="inlineStr">
+      <c r="C257" t="n">
+        <v>2</v>
+      </c>
+      <c r="D257" t="n">
+        <v>5</v>
+      </c>
+      <c r="E257" t="inlineStr">
         <is>
           <t>用户退出群后，还是可以接收到有关群的动态，例如群被解散。</t>
         </is>
       </c>
-      <c r="B257" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>退出 群后 接收 群 动态 群 解散</t>
         </is>
       </c>
-      <c r="C257" t="inlineStr">
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>10010000008465</v>
+      </c>
+      <c r="B258" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="258">
-      <c r="A258" t="inlineStr">
+      <c r="C258" t="n">
+        <v>3</v>
+      </c>
+      <c r="D258" t="n">
+        <v>5</v>
+      </c>
+      <c r="E258" t="inlineStr">
         <is>
           <t>创建群聊时只能一个一个勾选，没有全选选项</t>
         </is>
       </c>
-      <c r="B258" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>创建 群聊 只能 勾选 没有 全选 选项</t>
         </is>
       </c>
-      <c r="C258" t="inlineStr">
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>10010000009088</v>
+      </c>
+      <c r="B259" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="259">
-      <c r="A259" t="inlineStr">
+      <c r="C259" t="n">
+        <v>2</v>
+      </c>
+      <c r="D259" t="n">
+        <v>4</v>
+      </c>
+      <c r="E259" t="inlineStr">
         <is>
           <t>在查找群功能中，当用户试图查找已加入的群名称时，当前的显示逻辑并没有优先展示用户已加入的群。例如，名称为"啊"的群是用户已加入的，但需要下拉列表才能找到。这可能导致用户在寻找已加入的群时感到困惑和不便。</t>
         </is>
       </c>
-      <c r="B259" t="inlineStr">
+      <c r="F259" t="inlineStr">
         <is>
           <t>查找 群 试图 查找 加入 群 名称 当前 逻辑 没有 优先 展示 加入 群 名称 " " 群 加入 拉 列表 找到 寻找 加入 群时 感到 困惑 不便</t>
         </is>
       </c>
-      <c r="C259" t="inlineStr">
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>10010000008973</v>
+      </c>
+      <c r="B260" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="C260" t="n">
+        <v>2</v>
+      </c>
+      <c r="D260" t="n">
+        <v>5</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>1.步骤重现
     (1)进入群聊界面
@@ -4889,7 +7240,7 @@
    无法辨识加入哪一个群。</t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>. 重现 
          ( ) 进入 群聊 界面 
@@ -4898,570 +7249,862 @@
        无法 辨识 加入 群</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>10010000008767</v>
+      </c>
+      <c r="B261" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="C261" t="n">
+        <v>2</v>
+      </c>
+      <c r="D261" t="n">
+        <v>5</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>聊天历史界面，几个查询密布在一起，查询条件说明不清晰，影响用户体验</t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>聊天 历史 界面 几个 查询 密布 一起 查询 说明 清晰</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>10010000008830</v>
+      </c>
+      <c r="B262" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="C262" t="n">
+        <v>5</v>
+      </c>
+      <c r="D262" t="n">
+        <v>5</v>
+      </c>
+      <c r="E262" t="inlineStr">
         <is>
           <t>点击右下角商城界面左边的朋友进入聊天界面，然后右上角搜索界面左边的一个”眼睛“图标点了完全没有反应</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>点击 右下角 商城 界面 左边 朋友 进入 聊天 界面 右上角 搜索 界面 左边 眼睛 图 标点 完全 没有 反应</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>10010000008964</v>
+      </c>
+      <c r="B263" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
+      <c r="C263" t="n">
+        <v>3</v>
+      </c>
+      <c r="D263" t="n">
+        <v>5</v>
+      </c>
+      <c r="E263" t="inlineStr">
         <is>
           <t>用户在聊天界面的群查找功能中遇到了问题。当试图搜索其他群时，系统似乎只允许用户查找其他联系人，而不是显示其他群的信息。此外，用户只能通过点击“加入群”按钮来获取其他群的信息，这增加了操作的复杂性。</t>
         </is>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>聊天 界面 群 查找 遇到 试图 搜索 群时 系统 允许 查找 联系人 群 信息 只能 点击 加入 群 按钮 获取 群 信息 增加 复杂性</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>10010000008806</v>
+      </c>
+      <c r="B264" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="C264" t="n">
+        <v>4</v>
+      </c>
+      <c r="D264" t="n">
+        <v>5</v>
+      </c>
+      <c r="E264" t="inlineStr">
         <is>
           <t>在用户登录时，界面错误地展示了注册框而非登录框，这与用户的直觉和期望不符。此外，用户在尝试切换账号时也找不到相应的页面选项。</t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>登录 界面 错误 展示 注册 框而非 登录 框 直觉 期望 不符 切换 账号 找 不到 相应 页面 选项</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>10010000008831</v>
+      </c>
+      <c r="B265" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="inlineStr">
+      <c r="C265" t="n">
+        <v>3</v>
+      </c>
+      <c r="D265" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" t="inlineStr">
         <is>
           <t>在“聊天”应用的朋友界面中，各功能板块的区分度较差。具体来说，“好友”、“群聊”和“公众号”三大板块没有明显的视觉差异，这可能会导致用户在使用过程中难以快速识别和切换不同的功能。建议对这些板块的图标进行颜色上的调整或设计，以增强其辨识度和用户体验。</t>
         </is>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>聊天 应用 朋友 界面 板块 区分度 较差 具体来说 好友 群聊 公众 号 三大 板块 没有 明显 视觉 差异 过程 难以 快速 识别 切换 不同 建议 板块 图标 进行 颜色 调整 设计 增强 辨识 度</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>10010000009090</v>
+      </c>
+      <c r="B266" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="C266" t="n">
+        <v>3</v>
+      </c>
+      <c r="D266" t="n">
+        <v>5</v>
+      </c>
+      <c r="E266" t="inlineStr">
         <is>
           <t>在“JAY”tab下，点击送花按钮时，选择花的数量的界面显示不清晰。原本应该有明显的界面区分，但现在看起来非常模糊，导致用户难以准确地选择所需的花的数量。</t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>JAY tab 点击 送花 按钮 选择 花 数量 界面显示 清晰 原本 应该 明显 界面 区分 现在 看起来 非常 模糊 难以 准确 选择 需 花 数量</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>10010000009434</v>
+      </c>
+      <c r="B267" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="C267" t="n">
+        <v>4</v>
+      </c>
+      <c r="D267" t="n">
+        <v>2</v>
+      </c>
+      <c r="E267" t="inlineStr">
         <is>
           <t>该软件界面在用户点击确认按钮后，出现了一个不明确的提示信息，显示“添加超限”。这个提示没有提供足够的上下文信息，使得用户难以理解其具体含义和需要采取的后续操作。此外，该界面似乎是一个输入或设置界面，而这个提示信息与当前用户正在进行的操作（如数据输入、配置设置等）之间的关联并不清晰。这可能导致用户感到困惑，不知道如何正确响应这个提示，从而影响用户体验。</t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>界面 点击 确认 按钮 出现 明确 提示信息 添加 超限 提示 没有 提供 足够 上下文 信息 难以 理解 具体 含义 采取 后续 界面 输入 设置 界面 提示信息 当前 正在 进行 数据 输入 配置 设置 之间 关联 清晰 感到 困惑 知道 正确 响应 提示</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>10010000009063</v>
+      </c>
+      <c r="B268" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
+      <c r="C268" t="n">
+        <v>3</v>
+      </c>
+      <c r="D268" t="n">
+        <v>5</v>
+      </c>
+      <c r="E268" t="inlineStr">
         <is>
           <t>送花时，自己拥有的鲜花不是2朵时，一次送花数量没有“2”这个选项</t>
         </is>
       </c>
-      <c r="B268" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>送花 拥有 鲜花 朵 一次 送花 数量 没有 选项</t>
         </is>
       </c>
-      <c r="C268" t="inlineStr">
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>10010000008857</v>
+      </c>
+      <c r="B269" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="269">
-      <c r="A269" t="inlineStr">
+      <c r="C269" t="n">
+        <v>3</v>
+      </c>
+      <c r="D269" t="n">
+        <v>5</v>
+      </c>
+      <c r="E269" t="inlineStr">
         <is>
           <t>该图标外观上无法明确其功能，且没有提供任何解释或标签。</t>
         </is>
       </c>
-      <c r="B269" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>图标 外观 无法 明确 没有 提供 解释 标签</t>
         </is>
       </c>
-      <c r="C269" t="inlineStr">
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>10010000009022</v>
+      </c>
+      <c r="B270" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="C270" t="n">
+        <v>3</v>
+      </c>
+      <c r="D270" t="n">
+        <v>5</v>
+      </c>
+      <c r="E270" t="inlineStr">
         <is>
           <t>问题描述：在查找已加入的群时，用户在步骤6后能够成功搜索到并显示“默默默默”这个已加入的群。但当用户进入步骤10后，系统仍然显示“默默默默”群，而不是应该显示的其他内容或提示信息。这违反了软件的预期行为，即在查找未加入的群时不应显示已加入的群。</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>查找 加入 群时 能够 成功 搜索 默默 默默 加入 群 进入 10 系统 仍然 默默 默默 群 应该 内容 提示信息 违反 软件 预期 行为 查找 未 加入 群时 不应 加入 群</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>10010000008780</v>
+      </c>
+      <c r="B271" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="C271" t="n">
+        <v>2</v>
+      </c>
+      <c r="D271" t="n">
+        <v>2</v>
+      </c>
+      <c r="E271" t="inlineStr">
         <is>
           <t>界面设计过于简单，导致用户在使用过程中感到压抑。</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>界面设计 过于 简单 过程 感到 压抑</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>10010000009730</v>
+      </c>
+      <c r="B272" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="C272" t="n">
+        <v>3</v>
+      </c>
+      <c r="D272" t="n">
+        <v>5</v>
+      </c>
+      <c r="E272" t="inlineStr">
         <is>
           <t>该界面的“同意”和“拒绝”按钮设计过于紧密，用户在操作时容易误触，导致点击错误。这种布局问题可能会引发用户的操作失误，如意外地点击了错误的按钮，从而导致添加失败或错误地添加信息。</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>界面 同意 拒绝 按钮 设计 过于 紧密 容易 误触 点击 错误 布局 引发 操作失误 如意 外地 点击 错误 按钮 添加 失败 错误 添加 信息</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>10010000010024</v>
+      </c>
+      <c r="B273" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="C273" t="n">
+        <v>5</v>
+      </c>
+      <c r="D273" t="n">
+        <v>5</v>
+      </c>
+      <c r="E273" t="inlineStr">
         <is>
           <t>在搜索群聊后，用户无法明确地知道他们是否已经加入了该群。</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>搜索 群聊 无法 明确 知道 是否 加入 群</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>10010000009147</v>
+      </c>
+      <c r="B274" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="C274" t="n">
+        <v>3</v>
+      </c>
+      <c r="D274" t="n">
+        <v>5</v>
+      </c>
+      <c r="E274" t="inlineStr">
         <is>
           <t>不经用户同意即可将其拉入群聊，影响用户使用。建议让用户选择是否加入。</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="F274" t="inlineStr">
         <is>
           <t>同意 即可 其拉入 群聊 建议 选择 是否 加入</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>10010000008975</v>
+      </c>
+      <c r="B275" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="C275" t="n">
+        <v>3</v>
+      </c>
+      <c r="D275" t="n">
+        <v>5</v>
+      </c>
+      <c r="E275" t="inlineStr">
         <is>
           <t>在“朋友界面”中，用户无法从视觉元素或符号中获得清晰的信息指导。例如，“更多”图标并没有明确表示它的真实功能或含义，导致用户可能感到困惑或不知道如何进行下一步操作。</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>朋友 界面 无法 视觉 元素 符号 获得 清晰 信息 指导 更 图标 没有 明确 表示 真实 含义 感到 困惑 知道 进行 一步</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>10010000009522</v>
+      </c>
+      <c r="B276" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="n">
+        <v>5</v>
+      </c>
+      <c r="E276" t="inlineStr">
         <is>
           <t>在文件传输功能中，当用户选择“手机内存”或“SD卡内存”时，系统错误地显示了一个与所选存储类型不匹配的选项。具体来说，即使用户选择了“手机内存”，界面上仍然会出现“SD卡内存”的按钮，这可能导致用户混淆并尝试使用不存在的存储选项进行文件传输。</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>文件传输 选择 手机 内存 SD 卡 内存 系统 错误 所选 存储 类型 匹配 选项 具体来说 选择 手机 内存 界面 仍然 出现 SD 卡 内存 按钮 混淆 存储 选项 进行 文件传输</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>10010000009217</v>
+      </c>
+      <c r="B277" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="C277" t="n">
+        <v>4</v>
+      </c>
+      <c r="D277" t="n">
+        <v>5</v>
+      </c>
+      <c r="E277" t="inlineStr">
         <is>
           <t>在“群组”界面的上方，存在一个功能图标，其设计元素类似于眼睛。但经过多次点击测试，该图标并未产生预期的反应或切换功能，表现为功能性故障。</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="F277" t="inlineStr">
         <is>
           <t>群组 界面 上方 图标 设计 元素 类似 眼睛 多次 点击 图标 并未 产生 预期 反应 切换 表现 功能性 故障</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>10010000009440</v>
+      </c>
+      <c r="B278" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="C278" t="n">
+        <v>3</v>
+      </c>
+      <c r="D278" t="n">
+        <v>5</v>
+      </c>
+      <c r="E278" t="inlineStr">
         <is>
           <t>当用户被邀请进入一个群聊的时候，系统只会提醒你想关邀请的消息而 并不会征求用户的意见是否愿意加入该群，系统直接默认加入</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="F278" t="inlineStr">
         <is>
           <t>邀请 进入 群聊 系统 只会 提醒 想关 邀请 消息   不会 征求 意见 是否 愿意 加入 该群 系统 默认 加入</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>10010000008987</v>
+      </c>
+      <c r="B279" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
+      <c r="C279" t="n">
+        <v>3</v>
+      </c>
+      <c r="D279" t="n">
+        <v>5</v>
+      </c>
+      <c r="E279" t="inlineStr">
         <is>
           <t>设计财产灯聊天中，没有安全提示</t>
         </is>
       </c>
-      <c r="B279" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>设计 财产 灯 聊天 没有 安全 提示</t>
         </is>
       </c>
-      <c r="C279" t="inlineStr">
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>10010000009772</v>
+      </c>
+      <c r="B280" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
+      <c r="C280" t="n">
+        <v>3</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="inlineStr">
         <is>
           <t>在手机应用的“热门群推荐”功能中，用户点击进入后发现没有任何群组推荐结果展示。</t>
         </is>
       </c>
-      <c r="B280" t="inlineStr">
+      <c r="F280" t="inlineStr">
         <is>
           <t>手机 应用 热门 群 推荐 点击 进入 发现 没有 群组 推荐 展示</t>
         </is>
       </c>
-      <c r="C280" t="inlineStr">
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>10010000009206</v>
+      </c>
+      <c r="B281" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
+      <c r="C281" t="n">
+        <v>3</v>
+      </c>
+      <c r="D281" t="n">
+        <v>5</v>
+      </c>
+      <c r="E281" t="inlineStr">
         <is>
           <t>用户想加入新的群聊进行搜索的时候会出现多个相似群聊，以至于难以辨认自己真正想要加入的群聊，对用户造成了一定的不便。</t>
         </is>
       </c>
-      <c r="B281" t="inlineStr">
+      <c r="F281" t="inlineStr">
         <is>
           <t>想 加入 新 群聊 进行 搜索 出现 多个 相似 群聊 难以辨认 真正 想要 加入 群聊 造成 一定 不便</t>
         </is>
       </c>
-      <c r="C281" t="inlineStr">
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>10010000009243</v>
+      </c>
+      <c r="B282" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
+      <c r="C282" t="n">
+        <v>4</v>
+      </c>
+      <c r="D282" t="n">
+        <v>5</v>
+      </c>
+      <c r="E282" t="inlineStr">
         <is>
           <t>该软件界面显示地址定位功能失效，用户无法通过输入手机号码来获取其具体位置信息。</t>
         </is>
       </c>
-      <c r="B282" t="inlineStr">
+      <c r="F282" t="inlineStr">
         <is>
           <t>界面显示 地址 定位 失效 无法 输入 手机号码 获取 具体位置 信息</t>
         </is>
       </c>
-      <c r="C282" t="inlineStr">
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>10010000009283</v>
+      </c>
+      <c r="B283" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
+      <c r="C283" t="n">
+        <v>4</v>
+      </c>
+      <c r="D283" t="n">
+        <v>5</v>
+      </c>
+      <c r="E283" t="inlineStr">
         <is>
           <t>该支付界面只提供了一种支付方式，即支付宝，并没有提供其他如微信、银联等多样化的支付选项，导致客户在尝试付款时可能因为不便利而选择放弃或延迟付款。</t>
         </is>
       </c>
-      <c r="B283" t="inlineStr">
+      <c r="F283" t="inlineStr">
         <is>
           <t>支付 界面 提供 一种 支付 方式 支付宝 没有 提供 如微信 银联 多样化 支付 选项 客户 付款 便利 选择 放弃 延迟 付款</t>
         </is>
       </c>
-      <c r="C283" t="inlineStr">
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>10010000009500</v>
+      </c>
+      <c r="B284" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
+      <c r="C284" t="n">
+        <v>3</v>
+      </c>
+      <c r="D284" t="n">
+        <v>5</v>
+      </c>
+      <c r="E284" t="inlineStr">
         <is>
           <t>在申请加入一个设置为“不允许其他人加入”的群聊时，点击群名称进入群详细页面后，页面显示群名称和群简介后，下面为一片空白，并不像其他两种情况下，提示用户“加入群聊”或是“申请加入群聊”，什么提示都没有让用户摸不着头脑不知道到底发生了什么情况，为什么不能加入该群。</t>
         </is>
       </c>
-      <c r="B284" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>申请加入 设置 允许 其他人 加入 群聊 点击 群 名称 进入 群 详细 页面 页面 群 名称 群 简介 下面 一片空白 两种 情况 提示 加入 群聊 申请加入 群聊 提示 没有 摸不着头脑 知道 到底 发生 情况 不能 加入 该群</t>
         </is>
       </c>
-      <c r="C284" t="inlineStr">
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>10010000009219</v>
+      </c>
+      <c r="B285" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
+      <c r="C285" t="n">
+        <v>2</v>
+      </c>
+      <c r="D285" t="n">
+        <v>5</v>
+      </c>
+      <c r="E285" t="inlineStr">
         <is>
           <t>在通过特定方式进行搜索时，输入法与软件界面的交界处意外地展示了之前软件页面的内容。这导致了用户界面的不一致和用户体验上的混淆。</t>
         </is>
       </c>
-      <c r="B285" t="inlineStr">
+      <c r="F285" t="inlineStr">
         <is>
           <t>特定 方式 进行 搜索 输入法 软件 界面 交界处 意外 展示 之前 软件 页面 内容 用户界面 一致 混淆</t>
         </is>
       </c>
-      <c r="C285" t="inlineStr">
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>10010000009392</v>
+      </c>
+      <c r="B286" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
+      <c r="C286" t="n">
+        <v>4</v>
+      </c>
+      <c r="D286" t="n">
+        <v>5</v>
+      </c>
+      <c r="E286" t="inlineStr">
         <is>
           <t>简介的左上方是关闭选项，左下方是返回上一级菜单，容易给用户造成混淆</t>
         </is>
       </c>
-      <c r="B286" t="inlineStr">
+      <c r="F286" t="inlineStr">
         <is>
           <t>简介 左上方 关闭 选项 左下方 返回 一级 菜单 容易 造成 混淆</t>
         </is>
       </c>
-      <c r="C286" t="inlineStr">
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>10010000009514</v>
+      </c>
+      <c r="B287" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
+      <c r="C287" t="n">
+        <v>3</v>
+      </c>
+      <c r="D287" t="n">
+        <v>5</v>
+      </c>
+      <c r="E287" t="inlineStr">
         <is>
           <t>该软件在执行搜索结果的删除操作时，用户期望的是单个字符的删除功能，但实际结果是全部内容都被删除，这违反了用户的期望。</t>
         </is>
       </c>
-      <c r="B287" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>执行 搜索 删除 期望 单个 字符 删除 全部内容 删除 违反 期望</t>
         </is>
       </c>
-      <c r="C287" t="inlineStr">
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>10010000009528</v>
+      </c>
+      <c r="B288" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
+      <c r="C288" t="n">
+        <v>3</v>
+      </c>
+      <c r="D288" t="n">
+        <v>5</v>
+      </c>
+      <c r="E288" t="inlineStr">
         <is>
           <t>在“朋友”界面的页面顶部右侧，“眼睛”按钮没有任何用处。这意味着该按钮无法执行预期的功能，可能是由于软件缺陷或设计失误导致的。用户尝试点击该按钮时，不会触发任何响应或改变。这可能会给用户体验带来不便，因为它可能误导用户认为该按钮有特定的功能，而实际上它并不起作用。</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="F288" t="inlineStr">
         <is>
           <t>朋友 界面 页面 顶部 右侧 眼睛 按钮 没有 用处 意味着 按钮 无法 执行 预期 软件缺陷 设计 失误 点击 按钮 不会 触发 响应 改变 带来 不便 误导 认为 按钮 特定 实际上 不起作用</t>
         </is>
       </c>
-      <c r="C288" t="inlineStr">
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>10010000009808</v>
+      </c>
+      <c r="B289" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
+      <c r="C289" t="n">
+        <v>3</v>
+      </c>
+      <c r="D289" t="n">
+        <v>5</v>
+      </c>
+      <c r="E289" t="inlineStr">
         <is>
           <t>应该添加被拉入群聊的意愿权限，不能随意被拉入群聊</t>
         </is>
       </c>
-      <c r="B289" t="inlineStr">
+      <c r="F289" t="inlineStr">
         <is>
           <t>应该 添加 被拉入 群聊 意愿 权限 不能 随意 被拉入 群聊</t>
         </is>
       </c>
-      <c r="C289" t="inlineStr">
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>10010000009825</v>
+      </c>
+      <c r="B290" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
+      <c r="C290" t="n">
+        <v>4</v>
+      </c>
+      <c r="D290" t="n">
+        <v>5</v>
+      </c>
+      <c r="E290" t="inlineStr">
         <is>
           <t>群聊时号码无法复制。影响邀请别人加入。</t>
         </is>
       </c>
-      <c r="B290" t="inlineStr">
+      <c r="F290" t="inlineStr">
         <is>
           <t>群聊 号码 无法 复制 邀请 加入</t>
         </is>
       </c>
-      <c r="C290" t="inlineStr">
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>10010000010029</v>
+      </c>
+      <c r="B291" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
+      <c r="C291" t="n">
+        <v>3</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="inlineStr">
         <is>
           <t>在聊天界面中，点击头像与点击对话框的反应不一致。当用户点击头像时，没有预期的响应或反馈，而当用户尝试点击对话框时，则出现了意外的响应或反馈。这可能导致用户混淆和不便，因此建议在此区域增加提示，以指导用户如何正确交互。</t>
         </is>
       </c>
-      <c r="B291" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>聊天 界面 点击 头像 点击 对话框 反应 一致 点击 头像 没有 预期 响应 反馈 点击 对话框 出现 意外 响应 反馈 混淆 不便 建议 区域 增加 提示 指导 正确 交互</t>
         </is>
       </c>
-      <c r="C291" t="inlineStr">
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>10010000009839</v>
+      </c>
+      <c r="B292" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
+      <c r="C292" t="n">
+        <v>4</v>
+      </c>
+      <c r="D292" t="n">
+        <v>5</v>
+      </c>
+      <c r="E292" t="inlineStr">
         <is>
           <t>用户收到群聊邀请后自动加入群聊，无法拒绝邀请</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr">
+      <c r="F292" t="inlineStr">
         <is>
           <t>收到 群聊 邀请 自动 加入 群聊 无法 拒绝 邀请</t>
         </is>
       </c>
-      <c r="C292" t="inlineStr">
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>10010000009816</v>
+      </c>
+      <c r="B293" t="inlineStr">
         <is>
           <t>用户体验</t>
         </is>
       </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
+      <c r="C293" t="n">
+        <v>2</v>
+      </c>
+      <c r="D293" t="n">
+        <v>5</v>
+      </c>
+      <c r="E293" t="inlineStr">
         <is>
           <t>界面设计不便查找出所要求功能所在，不方便帐号的退出，用户体验低</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>界面设计 不便 查找 出所 要求 方便 帐号 退出 低</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>用户体验</t>
         </is>
       </c>
     </row>
